--- a/Data/out/Re-organization_Mdl_LR_Signif_preds.xlsx
+++ b/Data/out/Re-organization_Mdl_LR_Signif_preds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6446" uniqueCount="4234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8090" uniqueCount="5278">
   <si>
     <t>Label</t>
   </si>
@@ -11152,6 +11152,3138 @@
   </si>
   <si>
     <t>ADP</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>L2/3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>L2/3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
   </si>
   <si>
     <t>Mdl_predictors</t>
@@ -12811,118 +15943,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3712</v>
+        <v>4756</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3713</v>
+        <v>4757</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3714</v>
+        <v>4758</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3715</v>
+        <v>4759</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3716</v>
+        <v>4760</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3717</v>
+        <v>4761</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3718</v>
+        <v>4762</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3719</v>
+        <v>4763</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3720</v>
+        <v>4764</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3721</v>
+        <v>4765</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3722</v>
+        <v>4766</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3723</v>
+        <v>4767</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3724</v>
+        <v>4768</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3725</v>
+        <v>4769</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3726</v>
+        <v>4770</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3727</v>
+        <v>4771</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3728</v>
+        <v>4772</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3729</v>
+        <v>4773</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3743</v>
+        <v>4787</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3744</v>
+        <v>4788</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3746</v>
+        <v>4790</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3747</v>
+        <v>4791</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3809</v>
+        <v>4853</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3810</v>
+        <v>4854</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3811</v>
+        <v>4855</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3812</v>
+        <v>4856</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>3813</v>
+        <v>4857</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>3814</v>
+        <v>4858</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>3815</v>
+        <v>4859</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>3816</v>
+        <v>4860</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>3817</v>
+        <v>4861</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>3818</v>
+        <v>4862</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>3819</v>
+        <v>4863</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>3820</v>
+        <v>4864</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>3821</v>
+        <v>4865</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>3822</v>
+        <v>4866</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>3823</v>
+        <v>4867</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>3824</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="2">
@@ -12978,19 +16110,19 @@
         <v>2</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>3730</v>
+        <v>4774</v>
       </c>
       <c r="S2" s="0">
         <v>70518</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U2" s="0">
         <v>3</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>3748</v>
+        <v>4792</v>
       </c>
       <c r="W2" s="0">
         <v>335.24099999999999</v>
@@ -13094,19 +16226,19 @@
         <v>3</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>3731</v>
+        <v>4775</v>
       </c>
       <c r="S3" s="0">
         <v>70518</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U3" s="0">
         <v>3</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>3749</v>
+        <v>4793</v>
       </c>
       <c r="W3" s="0">
         <v>336.37799999999999</v>
@@ -13210,19 +16342,19 @@
         <v>2</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>3731</v>
+        <v>4775</v>
       </c>
       <c r="S4" s="0">
         <v>70518</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U4" s="0">
         <v>3</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>3750</v>
+        <v>4794</v>
       </c>
       <c r="W4" s="0">
         <v>222.042</v>
@@ -13326,19 +16458,19 @@
         <v>5</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S5" s="0">
         <v>70518</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U5" s="0">
         <v>3</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>3751</v>
+        <v>4795</v>
       </c>
       <c r="W5" s="0">
         <v>271.291</v>
@@ -13442,19 +16574,19 @@
         <v>5</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S6" s="0">
         <v>70518</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U6" s="0">
         <v>3</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>3752</v>
+        <v>4796</v>
       </c>
       <c r="W6" s="0">
         <v>215.91800000000001</v>
@@ -13558,19 +16690,19 @@
         <v>4</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S7" s="0">
         <v>50618</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U7" s="0">
         <v>1</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>3753</v>
+        <v>4797</v>
       </c>
       <c r="W7" s="0">
         <v>306.01499999999999</v>
@@ -13674,19 +16806,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S8" s="0">
         <v>50618</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U8" s="0">
         <v>1</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>3754</v>
+        <v>4798</v>
       </c>
       <c r="W8" s="0">
         <v>224.083</v>
@@ -13790,19 +16922,19 @@
         <v>7</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S9" s="0">
         <v>50618</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U9" s="0">
         <v>1</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>3755</v>
+        <v>4799</v>
       </c>
       <c r="W9" s="0">
         <v>280.95600000000002</v>
@@ -13906,19 +17038,19 @@
         <v>7</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S10" s="0">
         <v>50618</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U10" s="0">
         <v>1</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>3756</v>
+        <v>4800</v>
       </c>
       <c r="W10" s="0">
         <v>276.09399999999999</v>
@@ -14022,19 +17154,19 @@
         <v>4</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S11" s="0">
         <v>50618</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U11" s="0">
         <v>1</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>3757</v>
+        <v>4801</v>
       </c>
       <c r="W11" s="0">
         <v>175.17099999999999</v>
@@ -14138,19 +17270,19 @@
         <v>5</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>3732</v>
+        <v>4776</v>
       </c>
       <c r="S12" s="0">
         <v>50618</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U12" s="0">
         <v>1</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>3758</v>
+        <v>4802</v>
       </c>
       <c r="W12" s="0">
         <v>216.12</v>
@@ -14254,19 +17386,19 @@
         <v>8</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>3733</v>
+        <v>4777</v>
       </c>
       <c r="S13" s="0">
         <v>50618</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U13" s="0">
         <v>1</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>3759</v>
+        <v>4803</v>
       </c>
       <c r="W13" s="0">
         <v>242.666</v>
@@ -14370,19 +17502,19 @@
         <v>3</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S14" s="0">
         <v>50618</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U14" s="0">
         <v>1</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>3760</v>
+        <v>4804</v>
       </c>
       <c r="W14" s="0">
         <v>307.11799999999999</v>
@@ -14486,19 +17618,19 @@
         <v>5</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S15" s="0">
         <v>311018</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U15" s="0">
         <v>2</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>3761</v>
+        <v>4805</v>
       </c>
       <c r="W15" s="0">
         <v>441.27699999999999</v>
@@ -14602,19 +17734,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S16" s="0">
         <v>311018</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U16" s="0">
         <v>2</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>3762</v>
+        <v>4806</v>
       </c>
       <c r="W16" s="0">
         <v>497.51299999999998</v>
@@ -14718,19 +17850,19 @@
         <v>4</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S17" s="0">
         <v>311018</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U17" s="0">
         <v>2</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>3763</v>
+        <v>4807</v>
       </c>
       <c r="W17" s="0">
         <v>350.10000000000002</v>
@@ -14834,19 +17966,19 @@
         <v>5</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S18" s="0">
         <v>310120</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U18" s="0">
         <v>3</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>3764</v>
+        <v>4808</v>
       </c>
       <c r="W18" s="0">
         <v>207.78</v>
@@ -14950,19 +18082,19 @@
         <v>7</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S19" s="0">
         <v>260420</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U19" s="0">
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>3765</v>
+        <v>4809</v>
       </c>
       <c r="W19" s="0">
         <v>194.15100000000001</v>
@@ -15066,19 +18198,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S20" s="0">
         <v>260420</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U20" s="0">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>3766</v>
+        <v>4810</v>
       </c>
       <c r="W20" s="0">
         <v>191.27199999999999</v>
@@ -15182,19 +18314,19 @@
         <v>5</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S21" s="0">
         <v>280420</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U21" s="0">
         <v>2</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>3767</v>
+        <v>4811</v>
       </c>
       <c r="W21" s="0">
         <v>213.84800000000001</v>
@@ -15298,19 +18430,19 @@
         <v>5</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>3734</v>
+        <v>4778</v>
       </c>
       <c r="S22" s="0">
         <v>280420</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U22" s="0">
         <v>2</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>3768</v>
+        <v>4812</v>
       </c>
       <c r="W22" s="0">
         <v>236.59800000000001</v>
@@ -15414,19 +18546,19 @@
         <v>4</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>3735</v>
+        <v>4779</v>
       </c>
       <c r="S23" s="0">
         <v>280420</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U23" s="0">
         <v>3</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>3769</v>
+        <v>4813</v>
       </c>
       <c r="W23" s="0">
         <v>276.35300000000001</v>
@@ -15530,19 +18662,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>3735</v>
+        <v>4779</v>
       </c>
       <c r="S24" s="0">
         <v>290420</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U24" s="0">
         <v>2</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>3770</v>
+        <v>4814</v>
       </c>
       <c r="W24" s="0">
         <v>285.56299999999999</v>
@@ -15646,19 +18778,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>3736</v>
+        <v>4780</v>
       </c>
       <c r="S25" s="0">
         <v>290420</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U25" s="0">
         <v>2</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>3771</v>
+        <v>4815</v>
       </c>
       <c r="W25" s="0">
         <v>200.02000000000001</v>
@@ -15762,19 +18894,19 @@
         <v>5</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>3736</v>
+        <v>4780</v>
       </c>
       <c r="S26" s="0">
         <v>290420</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U26" s="0">
         <v>3</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>3772</v>
+        <v>4816</v>
       </c>
       <c r="W26" s="0">
         <v>323.95299999999997</v>
@@ -15878,19 +19010,19 @@
         <v>4</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>3736</v>
+        <v>4780</v>
       </c>
       <c r="S27" s="0">
         <v>290420</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U27" s="0">
         <v>3</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>3773</v>
+        <v>4817</v>
       </c>
       <c r="W27" s="0">
         <v>429.96699999999998</v>
@@ -15994,19 +19126,19 @@
         <v>7</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>3736</v>
+        <v>4780</v>
       </c>
       <c r="S28" s="0">
         <v>20520</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U28" s="0">
         <v>2</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>3774</v>
+        <v>4818</v>
       </c>
       <c r="W28" s="0">
         <v>318.19099999999997</v>
@@ -16110,19 +19242,19 @@
         <v>3</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>3737</v>
+        <v>4781</v>
       </c>
       <c r="S29" s="0">
         <v>20520</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U29" s="0">
         <v>3</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>3775</v>
+        <v>4819</v>
       </c>
       <c r="W29" s="0">
         <v>287.245</v>
@@ -16226,19 +19358,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>3738</v>
+        <v>4782</v>
       </c>
       <c r="S30" s="0">
         <v>20520</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U30" s="0">
         <v>3</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>3776</v>
+        <v>4820</v>
       </c>
       <c r="W30" s="0">
         <v>210.65700000000001</v>
@@ -16342,19 +19474,19 @@
         <v>4</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>3738</v>
+        <v>4782</v>
       </c>
       <c r="S31" s="0">
         <v>20520</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U31" s="0">
         <v>3</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>3777</v>
+        <v>4821</v>
       </c>
       <c r="W31" s="0">
         <v>266.67000000000002</v>
@@ -16458,19 +19590,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>3738</v>
+        <v>4782</v>
       </c>
       <c r="S32" s="0">
         <v>60520</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U32" s="0">
         <v>2</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>3778</v>
+        <v>4822</v>
       </c>
       <c r="W32" s="0">
         <v>437.94799999999998</v>
@@ -16574,19 +19706,19 @@
         <v>7</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>3738</v>
+        <v>4782</v>
       </c>
       <c r="S33" s="0">
         <v>60520</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U33" s="0">
         <v>3</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>3779</v>
+        <v>4823</v>
       </c>
       <c r="W33" s="0">
         <v>232.065</v>
@@ -16690,19 +19822,19 @@
         <v>8</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>3739</v>
+        <v>4783</v>
       </c>
       <c r="S34" s="0">
         <v>60520</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U34" s="0">
         <v>3</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>3780</v>
+        <v>4824</v>
       </c>
       <c r="W34" s="0">
         <v>135.01499999999999</v>
@@ -16806,19 +19938,19 @@
         <v>5</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>3740</v>
+        <v>4784</v>
       </c>
       <c r="S35" s="0">
         <v>41220</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U35" s="0">
         <v>3</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>3781</v>
+        <v>4825</v>
       </c>
       <c r="W35" s="0">
         <v>323.87700000000001</v>
@@ -16922,19 +20054,19 @@
         <v>7</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>3740</v>
+        <v>4784</v>
       </c>
       <c r="S36" s="0">
         <v>30221</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U36" s="0">
         <v>2</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>3782</v>
+        <v>4826</v>
       </c>
       <c r="W36" s="0">
         <v>261.61900000000003</v>
@@ -17038,19 +20170,19 @@
         <v>5</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>3741</v>
+        <v>4785</v>
       </c>
       <c r="S37" s="0">
         <v>30221</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U37" s="0">
         <v>2</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>3783</v>
+        <v>4827</v>
       </c>
       <c r="W37" s="0">
         <v>273.03199999999998</v>
@@ -17154,19 +20286,19 @@
         <v>7</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>3742</v>
+        <v>4786</v>
       </c>
       <c r="S38" s="0">
         <v>40221</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U38" s="0">
         <v>1</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>3783</v>
+        <v>4827</v>
       </c>
       <c r="W38" s="0">
         <v>292.33100000000002</v>
@@ -17270,19 +20402,19 @@
         <v>6</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>3742</v>
+        <v>4786</v>
       </c>
       <c r="S39" s="0">
         <v>40221</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U39" s="0">
         <v>1</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>3784</v>
+        <v>4828</v>
       </c>
       <c r="W39" s="0">
         <v>289.10000000000002</v>
@@ -17390,13 +20522,13 @@
         <v>300518</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U40" s="0">
         <v>1</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>3784</v>
+        <v>4828</v>
       </c>
       <c r="W40" s="0"/>
       <c r="X40" s="0"/>
@@ -17492,13 +20624,13 @@
         <v>300518</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U41" s="0">
         <v>1</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>3785</v>
+        <v>4829</v>
       </c>
       <c r="W41" s="0"/>
       <c r="X41" s="0"/>
@@ -17594,13 +20726,13 @@
         <v>300518</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U42" s="0">
         <v>1</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>3786</v>
+        <v>4830</v>
       </c>
       <c r="W42" s="0"/>
       <c r="X42" s="0"/>
@@ -17696,13 +20828,13 @@
         <v>300518</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U43" s="0">
         <v>2</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>3787</v>
+        <v>4831</v>
       </c>
       <c r="W43" s="0"/>
       <c r="X43" s="0"/>
@@ -17798,13 +20930,13 @@
         <v>300518</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U44" s="0">
         <v>2</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>3788</v>
+        <v>4832</v>
       </c>
       <c r="W44" s="0"/>
       <c r="X44" s="0"/>
@@ -17900,13 +21032,13 @@
         <v>300518</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U45" s="0">
         <v>3</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>3789</v>
+        <v>4833</v>
       </c>
       <c r="W45" s="0"/>
       <c r="X45" s="0"/>
@@ -18002,13 +21134,13 @@
         <v>300518</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U46" s="0">
         <v>3</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>3790</v>
+        <v>4834</v>
       </c>
       <c r="W46" s="0"/>
       <c r="X46" s="0"/>
@@ -18104,13 +21236,13 @@
         <v>300518</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U47" s="0">
         <v>3</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>3791</v>
+        <v>4835</v>
       </c>
       <c r="W47" s="0"/>
       <c r="X47" s="0"/>
@@ -18206,13 +21338,13 @@
         <v>70618</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U48" s="0">
         <v>1</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>3792</v>
+        <v>4836</v>
       </c>
       <c r="W48" s="0"/>
       <c r="X48" s="0"/>
@@ -18308,13 +21440,13 @@
         <v>70618</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U49" s="0">
         <v>1</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>3793</v>
+        <v>4837</v>
       </c>
       <c r="W49" s="0"/>
       <c r="X49" s="0"/>
@@ -18410,13 +21542,13 @@
         <v>70618</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U50" s="0">
         <v>1</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>3794</v>
+        <v>4838</v>
       </c>
       <c r="W50" s="0"/>
       <c r="X50" s="0"/>
@@ -18512,13 +21644,13 @@
         <v>70618</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U51" s="0">
         <v>1</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>3795</v>
+        <v>4839</v>
       </c>
       <c r="W51" s="0"/>
       <c r="X51" s="0"/>
@@ -18614,13 +21746,13 @@
         <v>70618</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U52" s="0">
         <v>2</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>3796</v>
+        <v>4840</v>
       </c>
       <c r="W52" s="0"/>
       <c r="X52" s="0"/>
@@ -18716,13 +21848,13 @@
         <v>70618</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U53" s="0">
         <v>2</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>3797</v>
+        <v>4841</v>
       </c>
       <c r="W53" s="0"/>
       <c r="X53" s="0"/>
@@ -18818,13 +21950,13 @@
         <v>70618</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U54" s="0">
         <v>2</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>3798</v>
+        <v>4842</v>
       </c>
       <c r="W54" s="0"/>
       <c r="X54" s="0"/>
@@ -18920,13 +22052,13 @@
         <v>70618</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U55" s="0">
         <v>3</v>
       </c>
       <c r="V55" s="0" t="s">
-        <v>3799</v>
+        <v>4843</v>
       </c>
       <c r="W55" s="0"/>
       <c r="X55" s="0"/>
@@ -19022,13 +22154,13 @@
         <v>70618</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U56" s="0">
         <v>3</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>3800</v>
+        <v>4844</v>
       </c>
       <c r="W56" s="0"/>
       <c r="X56" s="0"/>
@@ -19124,13 +22256,13 @@
         <v>70618</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U57" s="0">
         <v>3</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>3801</v>
+        <v>4845</v>
       </c>
       <c r="W57" s="0"/>
       <c r="X57" s="0"/>
@@ -19226,13 +22358,13 @@
         <v>70618</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U58" s="0">
         <v>3</v>
       </c>
       <c r="V58" s="0" t="s">
-        <v>3802</v>
+        <v>4846</v>
       </c>
       <c r="W58" s="0"/>
       <c r="X58" s="0"/>
@@ -19328,13 +22460,13 @@
         <v>80618</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U59" s="0">
         <v>1</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>3803</v>
+        <v>4847</v>
       </c>
       <c r="W59" s="0"/>
       <c r="X59" s="0"/>
@@ -19430,13 +22562,13 @@
         <v>80618</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U60" s="0">
         <v>1</v>
       </c>
       <c r="V60" s="0" t="s">
-        <v>3804</v>
+        <v>4848</v>
       </c>
       <c r="W60" s="0"/>
       <c r="X60" s="0"/>
@@ -19532,13 +22664,13 @@
         <v>80618</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U61" s="0">
         <v>2</v>
       </c>
       <c r="V61" s="0" t="s">
-        <v>3805</v>
+        <v>4849</v>
       </c>
       <c r="W61" s="0"/>
       <c r="X61" s="0"/>
@@ -19634,13 +22766,13 @@
         <v>80618</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U62" s="0">
         <v>3</v>
       </c>
       <c r="V62" s="0" t="s">
-        <v>3806</v>
+        <v>4850</v>
       </c>
       <c r="W62" s="0"/>
       <c r="X62" s="0"/>
@@ -19736,13 +22868,13 @@
         <v>80618</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U63" s="0">
         <v>3</v>
       </c>
       <c r="V63" s="0" t="s">
-        <v>3807</v>
+        <v>4851</v>
       </c>
       <c r="W63" s="0"/>
       <c r="X63" s="0"/>
@@ -19838,13 +22970,13 @@
         <v>80618</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>3745</v>
+        <v>4789</v>
       </c>
       <c r="U64" s="0">
         <v>3</v>
       </c>
       <c r="V64" s="0" t="s">
-        <v>3808</v>
+        <v>4852</v>
       </c>
       <c r="W64" s="0"/>
       <c r="X64" s="0"/>
@@ -19934,118 +23066,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3825</v>
+        <v>4869</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3826</v>
+        <v>4870</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3827</v>
+        <v>4871</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3828</v>
+        <v>4872</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3829</v>
+        <v>4873</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3830</v>
+        <v>4874</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3831</v>
+        <v>4875</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3832</v>
+        <v>4876</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3833</v>
+        <v>4877</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3834</v>
+        <v>4878</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3835</v>
+        <v>4879</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3836</v>
+        <v>4880</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3837</v>
+        <v>4881</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3838</v>
+        <v>4882</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3839</v>
+        <v>4883</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3840</v>
+        <v>4884</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3841</v>
+        <v>4885</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3842</v>
+        <v>4886</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3858</v>
+        <v>4902</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3859</v>
+        <v>4903</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3861</v>
+        <v>4905</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3862</v>
+        <v>4906</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3890</v>
+        <v>4934</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3891</v>
+        <v>4935</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3892</v>
+        <v>4936</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3893</v>
+        <v>4937</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>3894</v>
+        <v>4938</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>3895</v>
+        <v>4939</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>3896</v>
+        <v>4940</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>3897</v>
+        <v>4941</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>3898</v>
+        <v>4942</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>3899</v>
+        <v>4943</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>3900</v>
+        <v>4944</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>3901</v>
+        <v>4945</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>3902</v>
+        <v>4946</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>3903</v>
+        <v>4947</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>3904</v>
+        <v>4948</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>3905</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2">
@@ -20101,19 +23233,19 @@
         <v>4</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>3843</v>
+        <v>4887</v>
       </c>
       <c r="S2" s="0">
         <v>220918</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U2" s="0">
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>3863</v>
+        <v>4907</v>
       </c>
       <c r="W2" s="0">
         <v>180.036</v>
@@ -20217,19 +23349,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>3843</v>
+        <v>4887</v>
       </c>
       <c r="S3" s="0">
         <v>250320</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U3" s="0">
         <v>2</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>3864</v>
+        <v>4908</v>
       </c>
       <c r="W3" s="0">
         <v>347.30900000000003</v>
@@ -20333,19 +23465,19 @@
         <v>4</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>3844</v>
+        <v>4888</v>
       </c>
       <c r="S4" s="0">
         <v>250320</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U4" s="0">
         <v>2</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>3865</v>
+        <v>4909</v>
       </c>
       <c r="W4" s="0">
         <v>244.93600000000001</v>
@@ -20449,19 +23581,19 @@
         <v>5</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>3845</v>
+        <v>4889</v>
       </c>
       <c r="S5" s="0">
         <v>260320</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U5" s="0">
         <v>2</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>3866</v>
+        <v>4910</v>
       </c>
       <c r="W5" s="0">
         <v>388.26799999999997</v>
@@ -20565,19 +23697,19 @@
         <v>4</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>3845</v>
+        <v>4889</v>
       </c>
       <c r="S6" s="0">
         <v>260320</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U6" s="0">
         <v>2</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>3867</v>
+        <v>4911</v>
       </c>
       <c r="W6" s="0">
         <v>411.06299999999999</v>
@@ -20681,19 +23813,19 @@
         <v>2</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>3846</v>
+        <v>4890</v>
       </c>
       <c r="S7" s="0">
         <v>260320</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U7" s="0">
         <v>2</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>3868</v>
+        <v>4912</v>
       </c>
       <c r="W7" s="0">
         <v>337.81299999999999</v>
@@ -20793,19 +23925,19 @@
         <v>3</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>3846</v>
+        <v>4890</v>
       </c>
       <c r="S8" s="0">
         <v>140520</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U8" s="0">
         <v>2</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>3869</v>
+        <v>4913</v>
       </c>
       <c r="W8" s="0">
         <v>317.09500000000003</v>
@@ -20905,19 +24037,19 @@
         <v>4</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>3847</v>
+        <v>4891</v>
       </c>
       <c r="S9" s="0">
         <v>150520</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U9" s="0">
         <v>1</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>3870</v>
+        <v>4914</v>
       </c>
       <c r="W9" s="0">
         <v>365.92200000000003</v>
@@ -21021,19 +24153,19 @@
         <v>2</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>3848</v>
+        <v>4892</v>
       </c>
       <c r="S10" s="0">
         <v>150520</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U10" s="0">
         <v>1</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>3871</v>
+        <v>4915</v>
       </c>
       <c r="W10" s="0">
         <v>377.28100000000001</v>
@@ -21133,19 +24265,19 @@
         <v>7</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>3849</v>
+        <v>4893</v>
       </c>
       <c r="S11" s="0">
         <v>150520</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U11" s="0">
         <v>2</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>3872</v>
+        <v>4916</v>
       </c>
       <c r="W11" s="0">
         <v>289.39800000000002</v>
@@ -21249,19 +24381,19 @@
         <v>7</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>3849</v>
+        <v>4893</v>
       </c>
       <c r="S12" s="0">
         <v>180520</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U12" s="0">
         <v>1</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>3873</v>
+        <v>4917</v>
       </c>
       <c r="W12" s="0">
         <v>196.983</v>
@@ -21365,19 +24497,19 @@
         <v>5</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>3849</v>
+        <v>4893</v>
       </c>
       <c r="S13" s="0">
         <v>180520</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U13" s="0">
         <v>1</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>3874</v>
+        <v>4918</v>
       </c>
       <c r="W13" s="0">
         <v>165.46199999999999</v>
@@ -21481,19 +24613,19 @@
         <v>7</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>3849</v>
+        <v>4893</v>
       </c>
       <c r="S14" s="0">
         <v>190520</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U14" s="0">
         <v>1</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>3875</v>
+        <v>4919</v>
       </c>
       <c r="W14" s="0">
         <v>233.34200000000001</v>
@@ -21597,19 +24729,19 @@
         <v>8</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>3850</v>
+        <v>4894</v>
       </c>
       <c r="S15" s="0">
         <v>190520</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U15" s="0">
         <v>1</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>3876</v>
+        <v>4920</v>
       </c>
       <c r="W15" s="0">
         <v>282.97399999999999</v>
@@ -21713,19 +24845,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>3851</v>
+        <v>4895</v>
       </c>
       <c r="S16" s="0">
         <v>190520</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U16" s="0">
         <v>1</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>3877</v>
+        <v>4921</v>
       </c>
       <c r="W16" s="0">
         <v>303.07499999999999</v>
@@ -21829,19 +24961,19 @@
         <v>5</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>3852</v>
+        <v>4896</v>
       </c>
       <c r="S17" s="0">
         <v>190520</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U17" s="0">
         <v>1</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>3878</v>
+        <v>4922</v>
       </c>
       <c r="W17" s="0">
         <v>446.63299999999998</v>
@@ -21945,19 +25077,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>3853</v>
+        <v>4897</v>
       </c>
       <c r="S18" s="0">
         <v>200520</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U18" s="0">
         <v>2</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>3879</v>
+        <v>4923</v>
       </c>
       <c r="W18" s="0">
         <v>444.55000000000001</v>
@@ -22061,19 +25193,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>3853</v>
+        <v>4897</v>
       </c>
       <c r="S19" s="0">
         <v>200520</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U19" s="0">
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>3880</v>
+        <v>4924</v>
       </c>
       <c r="W19" s="0">
         <v>342.065</v>
@@ -22177,19 +25309,19 @@
         <v>5</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>3854</v>
+        <v>4898</v>
       </c>
       <c r="S20" s="0">
         <v>210520</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U20" s="0">
         <v>1</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>3881</v>
+        <v>4925</v>
       </c>
       <c r="W20" s="0">
         <v>300.43700000000001</v>
@@ -22293,19 +25425,19 @@
         <v>4</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>3855</v>
+        <v>4899</v>
       </c>
       <c r="S21" s="0">
         <v>210520</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U21" s="0">
         <v>1</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>3882</v>
+        <v>4926</v>
       </c>
       <c r="W21" s="0">
         <v>365.94400000000002</v>
@@ -22409,19 +25541,19 @@
         <v>7</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>3855</v>
+        <v>4899</v>
       </c>
       <c r="S22" s="0">
         <v>210520</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U22" s="0">
         <v>2</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>3883</v>
+        <v>4927</v>
       </c>
       <c r="W22" s="0">
         <v>510.767</v>
@@ -22525,19 +25657,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>3856</v>
+        <v>4900</v>
       </c>
       <c r="S23" s="0">
         <v>240520</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U23" s="0">
         <v>1</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>3884</v>
+        <v>4928</v>
       </c>
       <c r="W23" s="0">
         <v>236.59800000000001</v>
@@ -22641,19 +25773,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>3856</v>
+        <v>4900</v>
       </c>
       <c r="S24" s="0">
         <v>240520</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U24" s="0">
         <v>1</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>3885</v>
+        <v>4929</v>
       </c>
       <c r="W24" s="0">
         <v>260.12</v>
@@ -22757,19 +25889,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>3857</v>
+        <v>4901</v>
       </c>
       <c r="S25" s="0">
         <v>240520</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U25" s="0">
         <v>2</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>3886</v>
+        <v>4930</v>
       </c>
       <c r="W25" s="0">
         <v>327.06700000000001</v>
@@ -22873,19 +26005,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>3857</v>
+        <v>4901</v>
       </c>
       <c r="S26" s="0">
         <v>240520</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U26" s="0">
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>3887</v>
+        <v>4931</v>
       </c>
       <c r="W26" s="0">
         <v>246.61199999999999</v>
@@ -22993,13 +26125,13 @@
         <v>40918</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U27" s="0">
         <v>2</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>3888</v>
+        <v>4932</v>
       </c>
       <c r="W27" s="0"/>
       <c r="X27" s="0"/>
@@ -23095,13 +26227,13 @@
         <v>40918</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>3860</v>
+        <v>4904</v>
       </c>
       <c r="U28" s="0">
         <v>2</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>3889</v>
+        <v>4933</v>
       </c>
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
@@ -23191,118 +26323,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3906</v>
+        <v>4950</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3907</v>
+        <v>4951</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3908</v>
+        <v>4952</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3909</v>
+        <v>4953</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3910</v>
+        <v>4954</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3911</v>
+        <v>4955</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3912</v>
+        <v>4956</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3913</v>
+        <v>4957</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3914</v>
+        <v>4958</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3915</v>
+        <v>4959</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3916</v>
+        <v>4960</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3917</v>
+        <v>4961</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3918</v>
+        <v>4962</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3919</v>
+        <v>4963</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3920</v>
+        <v>4964</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3921</v>
+        <v>4965</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3922</v>
+        <v>4966</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3923</v>
+        <v>4967</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3931</v>
+        <v>4975</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3932</v>
+        <v>4976</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3934</v>
+        <v>4978</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3935</v>
+        <v>4979</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3951</v>
+        <v>4995</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3952</v>
+        <v>4996</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3953</v>
+        <v>4997</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3954</v>
+        <v>4998</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>3955</v>
+        <v>4999</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>3956</v>
+        <v>5000</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>3957</v>
+        <v>5001</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>3958</v>
+        <v>5002</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>3959</v>
+        <v>5003</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>3960</v>
+        <v>5004</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>3961</v>
+        <v>5005</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>3962</v>
+        <v>5006</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>3963</v>
+        <v>5007</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>3964</v>
+        <v>5008</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>3965</v>
+        <v>5009</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>3966</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="2">
@@ -23358,19 +26490,19 @@
         <v>5</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>3924</v>
+        <v>4968</v>
       </c>
       <c r="S2" s="0">
         <v>11018</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U2" s="0">
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>3936</v>
+        <v>4980</v>
       </c>
       <c r="W2" s="0">
         <v>189.65799999999999</v>
@@ -23474,19 +26606,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>3925</v>
+        <v>4969</v>
       </c>
       <c r="S3" s="0">
         <v>21018</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U3" s="0">
         <v>2</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>3937</v>
+        <v>4981</v>
       </c>
       <c r="W3" s="0">
         <v>251.38499999999999</v>
@@ -23590,19 +26722,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>3926</v>
+        <v>4970</v>
       </c>
       <c r="S4" s="0">
         <v>160519</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U4" s="0">
         <v>1</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>3937</v>
+        <v>4981</v>
       </c>
       <c r="W4" s="0">
         <v>296.98899999999998</v>
@@ -23706,19 +26838,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>3926</v>
+        <v>4970</v>
       </c>
       <c r="S5" s="0">
         <v>160519</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U5" s="0">
         <v>1</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>3938</v>
+        <v>4982</v>
       </c>
       <c r="W5" s="0">
         <v>261.38</v>
@@ -23822,19 +26954,19 @@
         <v>3</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>3927</v>
+        <v>4971</v>
       </c>
       <c r="S6" s="0">
         <v>160519</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U6" s="0">
         <v>3</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>3939</v>
+        <v>4983</v>
       </c>
       <c r="W6" s="0">
         <v>370.47000000000003</v>
@@ -23938,19 +27070,19 @@
         <v>5</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>3928</v>
+        <v>4972</v>
       </c>
       <c r="S7" s="0">
         <v>160519</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U7" s="0">
         <v>3</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>3940</v>
+        <v>4984</v>
       </c>
       <c r="W7" s="0">
         <v>246.60400000000001</v>
@@ -24054,19 +27186,19 @@
         <v>5</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>3928</v>
+        <v>4972</v>
       </c>
       <c r="S8" s="0">
         <v>170519</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U8" s="0">
         <v>2</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>3941</v>
+        <v>4985</v>
       </c>
       <c r="W8" s="0">
         <v>262.51299999999998</v>
@@ -24170,19 +27302,19 @@
         <v>4</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>3928</v>
+        <v>4972</v>
       </c>
       <c r="S9" s="0">
         <v>170519</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U9" s="0">
         <v>2</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>3942</v>
+        <v>4986</v>
       </c>
       <c r="W9" s="0">
         <v>315.73399999999998</v>
@@ -24286,19 +27418,19 @@
         <v>3</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>3929</v>
+        <v>4973</v>
       </c>
       <c r="S10" s="0">
         <v>11018</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U10" s="0">
         <v>2</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>3943</v>
+        <v>4987</v>
       </c>
       <c r="W10" s="0"/>
       <c r="X10" s="0"/>
@@ -24394,13 +27526,13 @@
         <v>11018</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U11" s="0">
         <v>2</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>3944</v>
+        <v>4988</v>
       </c>
       <c r="W11" s="0">
         <v>185.31200000000001</v>
@@ -24504,19 +27636,19 @@
         <v>1.46875</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>3930</v>
+        <v>4974</v>
       </c>
       <c r="S12" s="0">
         <v>21018</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U12" s="0">
         <v>2</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>3945</v>
+        <v>4989</v>
       </c>
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
@@ -24612,13 +27744,13 @@
         <v>21018</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U13" s="0">
         <v>2</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>3946</v>
+        <v>4990</v>
       </c>
       <c r="W13" s="0">
         <v>200.45099999999999</v>
@@ -24726,13 +27858,13 @@
         <v>270319</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>3947</v>
+        <v>4991</v>
       </c>
       <c r="W14" s="0">
         <v>325.56900000000002</v>
@@ -24840,13 +27972,13 @@
         <v>270319</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U15" s="0">
         <v>3</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>3948</v>
+        <v>4992</v>
       </c>
       <c r="W15" s="0">
         <v>309.09100000000001</v>
@@ -24954,13 +28086,13 @@
         <v>270319</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U16" s="0">
         <v>3</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>3949</v>
+        <v>4993</v>
       </c>
       <c r="W16" s="0">
         <v>388.49599999999998</v>
@@ -25066,11 +28198,11 @@
         <v>270319</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>3933</v>
+        <v>4977</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="s">
-        <v>3950</v>
+        <v>4994</v>
       </c>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
@@ -25160,118 +28292,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3967</v>
+        <v>5011</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3968</v>
+        <v>5012</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3969</v>
+        <v>5013</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3970</v>
+        <v>5014</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3971</v>
+        <v>5015</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3972</v>
+        <v>5016</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3973</v>
+        <v>5017</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3974</v>
+        <v>5018</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3975</v>
+        <v>5019</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3976</v>
+        <v>5020</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3977</v>
+        <v>5021</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3978</v>
+        <v>5022</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3979</v>
+        <v>5023</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3980</v>
+        <v>5024</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3981</v>
+        <v>5025</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3982</v>
+        <v>5026</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3983</v>
+        <v>5027</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3984</v>
+        <v>5028</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3998</v>
+        <v>5042</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3999</v>
+        <v>5043</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>4001</v>
+        <v>5045</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>4002</v>
+        <v>5046</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>4071</v>
+        <v>5115</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>4072</v>
+        <v>5116</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>4073</v>
+        <v>5117</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>4074</v>
+        <v>5118</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>4075</v>
+        <v>5119</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>4076</v>
+        <v>5120</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>4077</v>
+        <v>5121</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>4078</v>
+        <v>5122</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>4079</v>
+        <v>5123</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>4080</v>
+        <v>5124</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>4081</v>
+        <v>5125</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>4082</v>
+        <v>5126</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>4083</v>
+        <v>5127</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>4084</v>
+        <v>5128</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>4085</v>
+        <v>5129</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>4086</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="2">
@@ -25327,19 +28459,19 @@
         <v>6</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>3985</v>
+        <v>5029</v>
       </c>
       <c r="S2" s="0">
         <v>30518</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U2" s="0">
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>4003</v>
+        <v>5047</v>
       </c>
       <c r="W2" s="0">
         <v>320.36500000000001</v>
@@ -25443,19 +28575,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>3985</v>
+        <v>5029</v>
       </c>
       <c r="S3" s="0">
         <v>30518</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U3" s="0">
         <v>2</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>4004</v>
+        <v>5048</v>
       </c>
       <c r="W3" s="0">
         <v>295.94099999999997</v>
@@ -25559,19 +28691,19 @@
         <v>4</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>3986</v>
+        <v>5030</v>
       </c>
       <c r="S4" s="0">
         <v>30518</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U4" s="0">
         <v>2</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>4005</v>
+        <v>5049</v>
       </c>
       <c r="W4" s="0">
         <v>468.06799999999998</v>
@@ -25675,19 +28807,19 @@
         <v>5</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S5" s="0">
         <v>80518</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U5" s="0">
         <v>2</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>4006</v>
+        <v>5050</v>
       </c>
       <c r="W5" s="0">
         <v>267.404</v>
@@ -25791,19 +28923,19 @@
         <v>3</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S6" s="0">
         <v>80518</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U6" s="0">
         <v>2</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>4007</v>
+        <v>5051</v>
       </c>
       <c r="W6" s="0">
         <v>285.625</v>
@@ -25907,19 +29039,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S7" s="0">
         <v>80518</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U7" s="0">
         <v>2</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>4008</v>
+        <v>5052</v>
       </c>
       <c r="W7" s="0">
         <v>395.673</v>
@@ -26023,19 +29155,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S8" s="0">
         <v>80818</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U8" s="0">
         <v>2</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>4009</v>
+        <v>5053</v>
       </c>
       <c r="W8" s="0">
         <v>270.471</v>
@@ -26139,19 +29271,19 @@
         <v>5</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S9" s="0">
         <v>80818</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U9" s="0">
         <v>2</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>4010</v>
+        <v>5054</v>
       </c>
       <c r="W9" s="0">
         <v>352.30799999999999</v>
@@ -26253,19 +29385,19 @@
         <v>3</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S10" s="0">
         <v>80818</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U10" s="0">
         <v>2</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>4011</v>
+        <v>5055</v>
       </c>
       <c r="W10" s="0">
         <v>268.197</v>
@@ -26369,19 +29501,19 @@
         <v>5</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S11" s="0">
         <v>80818</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U11" s="0">
         <v>2</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>4012</v>
+        <v>5056</v>
       </c>
       <c r="W11" s="0">
         <v>354.85399999999998</v>
@@ -26485,19 +29617,19 @@
         <v>5</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S12" s="0">
         <v>80818</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U12" s="0">
         <v>2</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>4013</v>
+        <v>5057</v>
       </c>
       <c r="W12" s="0">
         <v>186.501</v>
@@ -26601,19 +29733,19 @@
         <v>4</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>3987</v>
+        <v>5031</v>
       </c>
       <c r="S13" s="0">
         <v>80818</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U13" s="0">
         <v>2</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>4014</v>
+        <v>5058</v>
       </c>
       <c r="W13" s="0">
         <v>234.27699999999999</v>
@@ -26717,19 +29849,19 @@
         <v>5</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>3988</v>
+        <v>5032</v>
       </c>
       <c r="S14" s="0">
         <v>41220</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>4015</v>
+        <v>5059</v>
       </c>
       <c r="W14" s="0">
         <v>457.79899999999998</v>
@@ -26833,19 +29965,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S15" s="0">
         <v>41220</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U15" s="0">
         <v>2</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>4016</v>
+        <v>5060</v>
       </c>
       <c r="W15" s="0">
         <v>291.68000000000001</v>
@@ -26949,19 +30081,19 @@
         <v>5</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S16" s="0">
         <v>81220</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U16" s="0">
         <v>2</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>4017</v>
+        <v>5061</v>
       </c>
       <c r="W16" s="0">
         <v>181.64099999999999</v>
@@ -27065,19 +30197,19 @@
         <v>8</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S17" s="0">
         <v>81220</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U17" s="0">
         <v>2</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>4018</v>
+        <v>5062</v>
       </c>
       <c r="W17" s="0">
         <v>262.42500000000001</v>
@@ -27181,19 +30313,19 @@
         <v>4</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S18" s="0">
         <v>91220</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U18" s="0">
         <v>2</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>4019</v>
+        <v>5063</v>
       </c>
       <c r="W18" s="0">
         <v>253.44200000000001</v>
@@ -27297,19 +30429,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S19" s="0">
         <v>91220</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U19" s="0">
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>4020</v>
+        <v>5064</v>
       </c>
       <c r="W19" s="0">
         <v>226.15700000000001</v>
@@ -27413,19 +30545,19 @@
         <v>7</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S20" s="0">
         <v>130121</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U20" s="0">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>4021</v>
+        <v>5065</v>
       </c>
       <c r="W20" s="0">
         <v>260.637</v>
@@ -27529,19 +30661,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S21" s="0">
         <v>130121</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U21" s="0">
         <v>3</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>4022</v>
+        <v>5066</v>
       </c>
       <c r="W21" s="0">
         <v>288.64800000000002</v>
@@ -27645,19 +30777,19 @@
         <v>8</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S22" s="0">
         <v>130121</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U22" s="0">
         <v>5</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>4023</v>
+        <v>5067</v>
       </c>
       <c r="W22" s="0">
         <v>236.374</v>
@@ -27761,19 +30893,19 @@
         <v>7</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S23" s="0">
         <v>180121</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U23" s="0">
         <v>2</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>4024</v>
+        <v>5068</v>
       </c>
       <c r="W23" s="0">
         <v>186.429</v>
@@ -27877,19 +31009,19 @@
         <v>4</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>3989</v>
+        <v>5033</v>
       </c>
       <c r="S24" s="0">
         <v>180121</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U24" s="0">
         <v>2</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>4025</v>
+        <v>5069</v>
       </c>
       <c r="W24" s="0">
         <v>254.88499999999999</v>
@@ -27993,19 +31125,19 @@
         <v>4</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>3990</v>
+        <v>5034</v>
       </c>
       <c r="S25" s="0">
         <v>180121</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U25" s="0">
         <v>3</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>4026</v>
+        <v>5070</v>
       </c>
       <c r="W25" s="0">
         <v>258.005</v>
@@ -28109,19 +31241,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>3991</v>
+        <v>5035</v>
       </c>
       <c r="S26" s="0">
         <v>180121</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U26" s="0">
         <v>3</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>4027</v>
+        <v>5071</v>
       </c>
       <c r="W26" s="0">
         <v>238.64599999999999</v>
@@ -28225,19 +31357,19 @@
         <v>3</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>3992</v>
+        <v>5036</v>
       </c>
       <c r="S27" s="0">
         <v>190121</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U27" s="0">
         <v>2</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>4028</v>
+        <v>5072</v>
       </c>
       <c r="W27" s="0">
         <v>470.61599999999999</v>
@@ -28341,19 +31473,19 @@
         <v>9</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>3993</v>
+        <v>5037</v>
       </c>
       <c r="S28" s="0">
         <v>190121</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U28" s="0">
         <v>3</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>4029</v>
+        <v>5073</v>
       </c>
       <c r="W28" s="0">
         <v>358.39299999999997</v>
@@ -28457,19 +31589,19 @@
         <v>5</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>3994</v>
+        <v>5038</v>
       </c>
       <c r="S29" s="0">
         <v>190121</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U29" s="0">
         <v>3</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>4030</v>
+        <v>5074</v>
       </c>
       <c r="W29" s="0">
         <v>301.60399999999998</v>
@@ -28573,19 +31705,19 @@
         <v>4</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>3994</v>
+        <v>5038</v>
       </c>
       <c r="S30" s="0">
         <v>190121</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U30" s="0">
         <v>3</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>4031</v>
+        <v>5075</v>
       </c>
       <c r="W30" s="0">
         <v>207.81700000000001</v>
@@ -28689,19 +31821,19 @@
         <v>7</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>3995</v>
+        <v>5039</v>
       </c>
       <c r="S31" s="0">
         <v>250121</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U31" s="0">
         <v>2</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>4032</v>
+        <v>5076</v>
       </c>
       <c r="W31" s="0">
         <v>286.37599999999998</v>
@@ -28805,19 +31937,19 @@
         <v>7</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>3995</v>
+        <v>5039</v>
       </c>
       <c r="S32" s="0">
         <v>250121</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U32" s="0">
         <v>2</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>4033</v>
+        <v>5077</v>
       </c>
       <c r="W32" s="0">
         <v>269.71600000000001</v>
@@ -28921,19 +32053,19 @@
         <v>7</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>3995</v>
+        <v>5039</v>
       </c>
       <c r="S33" s="0">
         <v>250121</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U33" s="0">
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>4034</v>
+        <v>5078</v>
       </c>
       <c r="W33" s="0">
         <v>240.279</v>
@@ -29037,19 +32169,19 @@
         <v>7</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>3996</v>
+        <v>5040</v>
       </c>
       <c r="S34" s="0">
         <v>250121</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U34" s="0">
         <v>2</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>4035</v>
+        <v>5079</v>
       </c>
       <c r="W34" s="0">
         <v>269.327</v>
@@ -29153,19 +32285,19 @@
         <v>5</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>3997</v>
+        <v>5041</v>
       </c>
       <c r="S35" s="0">
         <v>250121</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U35" s="0">
         <v>3</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>4036</v>
+        <v>5080</v>
       </c>
       <c r="W35" s="0">
         <v>331.839</v>
@@ -29269,19 +32401,19 @@
         <v>7</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>3997</v>
+        <v>5041</v>
       </c>
       <c r="S36" s="0">
         <v>250121</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U36" s="0">
         <v>3</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>4037</v>
+        <v>5081</v>
       </c>
       <c r="W36" s="0">
         <v>301.15100000000001</v>
@@ -29385,19 +32517,19 @@
         <v>7</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>3997</v>
+        <v>5041</v>
       </c>
       <c r="S37" s="0">
         <v>250121</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U37" s="0">
         <v>3</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>4038</v>
+        <v>5082</v>
       </c>
       <c r="W37" s="0">
         <v>230.37299999999999</v>
@@ -29499,19 +32631,19 @@
         <v>2.625</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>3997</v>
+        <v>5041</v>
       </c>
       <c r="S38" s="0">
         <v>210618</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U38" s="0">
         <v>1</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>4039</v>
+        <v>5083</v>
       </c>
       <c r="W38" s="0"/>
       <c r="X38" s="0"/>
@@ -29607,13 +32739,13 @@
         <v>30818</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U39" s="0">
         <v>1</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>4040</v>
+        <v>5084</v>
       </c>
       <c r="W39" s="0"/>
       <c r="X39" s="0"/>
@@ -29709,13 +32841,13 @@
         <v>30818</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U40" s="0">
         <v>3</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>4041</v>
+        <v>5085</v>
       </c>
       <c r="W40" s="0"/>
       <c r="X40" s="0"/>
@@ -29811,13 +32943,13 @@
         <v>30818</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U41" s="0">
         <v>3</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>4042</v>
+        <v>5086</v>
       </c>
       <c r="W41" s="0"/>
       <c r="X41" s="0"/>
@@ -29913,13 +33045,13 @@
         <v>30818</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U42" s="0">
         <v>3</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>4043</v>
+        <v>5087</v>
       </c>
       <c r="W42" s="0"/>
       <c r="X42" s="0"/>
@@ -30015,13 +33147,13 @@
         <v>30818</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U43" s="0">
         <v>3</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>4044</v>
+        <v>5088</v>
       </c>
       <c r="W43" s="0"/>
       <c r="X43" s="0"/>
@@ -30117,13 +33249,13 @@
         <v>30818</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U44" s="0">
         <v>1</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>4045</v>
+        <v>5089</v>
       </c>
       <c r="W44" s="0"/>
       <c r="X44" s="0"/>
@@ -30219,13 +33351,13 @@
         <v>30818</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U45" s="0">
         <v>1</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>4046</v>
+        <v>5090</v>
       </c>
       <c r="W45" s="0"/>
       <c r="X45" s="0"/>
@@ -30321,13 +33453,13 @@
         <v>30818</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U46" s="0">
         <v>2</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>4047</v>
+        <v>5091</v>
       </c>
       <c r="W46" s="0"/>
       <c r="X46" s="0"/>
@@ -30423,13 +33555,13 @@
         <v>30818</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U47" s="0">
         <v>2</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>4048</v>
+        <v>5092</v>
       </c>
       <c r="W47" s="0"/>
       <c r="X47" s="0"/>
@@ -30525,13 +33657,13 @@
         <v>60818</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U48" s="0">
         <v>1</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>4049</v>
+        <v>5093</v>
       </c>
       <c r="W48" s="0"/>
       <c r="X48" s="0"/>
@@ -30627,13 +33759,13 @@
         <v>60818</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U49" s="0">
         <v>3</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>4050</v>
+        <v>5094</v>
       </c>
       <c r="W49" s="0"/>
       <c r="X49" s="0"/>
@@ -30729,13 +33861,13 @@
         <v>60818</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U50" s="0">
         <v>1</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>4051</v>
+        <v>5095</v>
       </c>
       <c r="W50" s="0"/>
       <c r="X50" s="0"/>
@@ -30831,13 +33963,13 @@
         <v>60818</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U51" s="0">
         <v>2</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>4052</v>
+        <v>5096</v>
       </c>
       <c r="W51" s="0"/>
       <c r="X51" s="0"/>
@@ -30933,13 +34065,13 @@
         <v>60818</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U52" s="0">
         <v>3</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>4053</v>
+        <v>5097</v>
       </c>
       <c r="W52" s="0"/>
       <c r="X52" s="0"/>
@@ -31035,13 +34167,13 @@
         <v>60818</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U53" s="0">
         <v>3</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>4054</v>
+        <v>5098</v>
       </c>
       <c r="W53" s="0"/>
       <c r="X53" s="0"/>
@@ -31137,13 +34269,13 @@
         <v>60818</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U54" s="0">
         <v>3</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>4055</v>
+        <v>5099</v>
       </c>
       <c r="W54" s="0"/>
       <c r="X54" s="0"/>
@@ -31239,13 +34371,13 @@
         <v>70818</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U55" s="0">
         <v>1</v>
       </c>
       <c r="V55" s="0" t="s">
-        <v>4056</v>
+        <v>5100</v>
       </c>
       <c r="W55" s="0"/>
       <c r="X55" s="0"/>
@@ -31341,13 +34473,13 @@
         <v>70818</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U56" s="0">
         <v>2</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>4057</v>
+        <v>5101</v>
       </c>
       <c r="W56" s="0"/>
       <c r="X56" s="0"/>
@@ -31443,13 +34575,13 @@
         <v>70818</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U57" s="0">
         <v>1</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>4058</v>
+        <v>5102</v>
       </c>
       <c r="W57" s="0"/>
       <c r="X57" s="0"/>
@@ -31545,13 +34677,13 @@
         <v>70818</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U58" s="0">
         <v>2</v>
       </c>
       <c r="V58" s="0" t="s">
-        <v>4059</v>
+        <v>5103</v>
       </c>
       <c r="W58" s="0"/>
       <c r="X58" s="0"/>
@@ -31647,13 +34779,13 @@
         <v>70818</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U59" s="0">
         <v>1</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>4060</v>
+        <v>5104</v>
       </c>
       <c r="W59" s="0"/>
       <c r="X59" s="0"/>
@@ -31749,13 +34881,13 @@
         <v>70818</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U60" s="0">
         <v>1</v>
       </c>
       <c r="V60" s="0" t="s">
-        <v>4061</v>
+        <v>5105</v>
       </c>
       <c r="W60" s="0"/>
       <c r="X60" s="0"/>
@@ -31851,13 +34983,13 @@
         <v>70818</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U61" s="0">
         <v>2</v>
       </c>
       <c r="V61" s="0" t="s">
-        <v>4062</v>
+        <v>5106</v>
       </c>
       <c r="W61" s="0"/>
       <c r="X61" s="0"/>
@@ -31953,13 +35085,13 @@
         <v>70818</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U62" s="0">
         <v>2</v>
       </c>
       <c r="V62" s="0" t="s">
-        <v>4063</v>
+        <v>5107</v>
       </c>
       <c r="W62" s="0"/>
       <c r="X62" s="0"/>
@@ -32055,13 +35187,13 @@
         <v>70818</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U63" s="0">
         <v>2</v>
       </c>
       <c r="V63" s="0" t="s">
-        <v>4064</v>
+        <v>5108</v>
       </c>
       <c r="W63" s="0"/>
       <c r="X63" s="0"/>
@@ -32157,13 +35289,13 @@
         <v>140818</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U64" s="0">
         <v>1</v>
       </c>
       <c r="V64" s="0" t="s">
-        <v>4065</v>
+        <v>5109</v>
       </c>
       <c r="W64" s="0"/>
       <c r="X64" s="0"/>
@@ -32259,13 +35391,13 @@
         <v>140818</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U65" s="0">
         <v>1</v>
       </c>
       <c r="V65" s="0" t="s">
-        <v>4066</v>
+        <v>5110</v>
       </c>
       <c r="W65" s="0"/>
       <c r="X65" s="0"/>
@@ -32361,13 +35493,13 @@
         <v>140818</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U66" s="0">
         <v>2</v>
       </c>
       <c r="V66" s="0" t="s">
-        <v>4067</v>
+        <v>5111</v>
       </c>
       <c r="W66" s="0"/>
       <c r="X66" s="0"/>
@@ -32463,13 +35595,13 @@
         <v>140818</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U67" s="0">
         <v>2</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>4068</v>
+        <v>5112</v>
       </c>
       <c r="W67" s="0"/>
       <c r="X67" s="0"/>
@@ -32565,13 +35697,13 @@
         <v>140818</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U68" s="0">
         <v>2</v>
       </c>
       <c r="V68" s="0" t="s">
-        <v>4069</v>
+        <v>5113</v>
       </c>
       <c r="W68" s="0"/>
       <c r="X68" s="0"/>
@@ -32667,13 +35799,13 @@
         <v>140818</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>4000</v>
+        <v>5044</v>
       </c>
       <c r="U69" s="0">
         <v>3</v>
       </c>
       <c r="V69" s="0" t="s">
-        <v>4070</v>
+        <v>5114</v>
       </c>
       <c r="W69" s="0"/>
       <c r="X69" s="0"/>
@@ -32763,118 +35895,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4087</v>
+        <v>5131</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4088</v>
+        <v>5132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4089</v>
+        <v>5133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4090</v>
+        <v>5134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4091</v>
+        <v>5135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4092</v>
+        <v>5136</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4093</v>
+        <v>5137</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4094</v>
+        <v>5138</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>4095</v>
+        <v>5139</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>4096</v>
+        <v>5140</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>4097</v>
+        <v>5141</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>4098</v>
+        <v>5142</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>4099</v>
+        <v>5143</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>4100</v>
+        <v>5144</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>4101</v>
+        <v>5145</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>4102</v>
+        <v>5146</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>4103</v>
+        <v>5147</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>4104</v>
+        <v>5148</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>4115</v>
+        <v>5159</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>4116</v>
+        <v>5160</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>4118</v>
+        <v>5162</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>4119</v>
+        <v>5163</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>4145</v>
+        <v>5189</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>4146</v>
+        <v>5190</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>4147</v>
+        <v>5191</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>4148</v>
+        <v>5192</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>4149</v>
+        <v>5193</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>4150</v>
+        <v>5194</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>4151</v>
+        <v>5195</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>4152</v>
+        <v>5196</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>4153</v>
+        <v>5197</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>4154</v>
+        <v>5198</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>4155</v>
+        <v>5199</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>4156</v>
+        <v>5200</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>4157</v>
+        <v>5201</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>4158</v>
+        <v>5202</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>4159</v>
+        <v>5203</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>4160</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2">
@@ -32930,19 +36062,19 @@
         <v>3</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>4105</v>
+        <v>5149</v>
       </c>
       <c r="S2" s="0">
         <v>220519</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U2" s="0">
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>4120</v>
+        <v>5164</v>
       </c>
       <c r="W2" s="0">
         <v>466.495</v>
@@ -33046,19 +36178,19 @@
         <v>3</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>4106</v>
+        <v>5150</v>
       </c>
       <c r="S3" s="0">
         <v>220519</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U3" s="0">
         <v>3</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>4121</v>
+        <v>5165</v>
       </c>
       <c r="W3" s="0">
         <v>348.06799999999998</v>
@@ -33162,19 +36294,19 @@
         <v>5</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>4107</v>
+        <v>5151</v>
       </c>
       <c r="S4" s="0">
         <v>220519</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U4" s="0">
         <v>3</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>4122</v>
+        <v>5166</v>
       </c>
       <c r="W4" s="0">
         <v>409.49400000000003</v>
@@ -33278,19 +36410,19 @@
         <v>5</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>4107</v>
+        <v>5151</v>
       </c>
       <c r="S5" s="0">
         <v>220519</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U5" s="0">
         <v>3</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>4123</v>
+        <v>5167</v>
       </c>
       <c r="W5" s="0">
         <v>304.84699999999998</v>
@@ -33394,19 +36526,19 @@
         <v>7</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>4107</v>
+        <v>5151</v>
       </c>
       <c r="S6" s="0">
         <v>290519</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U6" s="0">
         <v>1</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>4124</v>
+        <v>5168</v>
       </c>
       <c r="W6" s="0">
         <v>235.47399999999999</v>
@@ -33510,19 +36642,19 @@
         <v>3</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>4108</v>
+        <v>5152</v>
       </c>
       <c r="S7" s="0">
         <v>290519</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U7" s="0">
         <v>1</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>4125</v>
+        <v>5169</v>
       </c>
       <c r="W7" s="0">
         <v>295.85300000000001</v>
@@ -33626,19 +36758,19 @@
         <v>2</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>4109</v>
+        <v>5153</v>
       </c>
       <c r="S8" s="0">
         <v>290519</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U8" s="0">
         <v>2</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>4126</v>
+        <v>5170</v>
       </c>
       <c r="W8" s="0">
         <v>418.59399999999999</v>
@@ -33742,19 +36874,19 @@
         <v>3</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>4109</v>
+        <v>5153</v>
       </c>
       <c r="S9" s="0">
         <v>300519</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U9" s="0">
         <v>2</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>4127</v>
+        <v>5171</v>
       </c>
       <c r="W9" s="0">
         <v>261.40100000000001</v>
@@ -33858,19 +36990,19 @@
         <v>3</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>4109</v>
+        <v>5153</v>
       </c>
       <c r="S10" s="0">
         <v>300519</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U10" s="0">
         <v>2</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>4128</v>
+        <v>5172</v>
       </c>
       <c r="W10" s="0">
         <v>232.005</v>
@@ -33974,19 +37106,19 @@
         <v>3</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>4110</v>
+        <v>5154</v>
       </c>
       <c r="S11" s="0">
         <v>300519</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U11" s="0">
         <v>2</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>4129</v>
+        <v>5173</v>
       </c>
       <c r="W11" s="0">
         <v>424.30200000000002</v>
@@ -34090,19 +37222,19 @@
         <v>4</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>4110</v>
+        <v>5154</v>
       </c>
       <c r="S12" s="0">
         <v>300519</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U12" s="0">
         <v>2</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>4130</v>
+        <v>5174</v>
       </c>
       <c r="W12" s="0">
         <v>437.91899999999998</v>
@@ -34206,19 +37338,19 @@
         <v>5</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>4111</v>
+        <v>5155</v>
       </c>
       <c r="S13" s="0">
         <v>270520</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U13" s="0">
         <v>2</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>4131</v>
+        <v>5175</v>
       </c>
       <c r="W13" s="0">
         <v>219.21199999999999</v>
@@ -34322,19 +37454,19 @@
         <v>7</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>4112</v>
+        <v>5156</v>
       </c>
       <c r="S14" s="0">
         <v>270520</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>4132</v>
+        <v>5176</v>
       </c>
       <c r="W14" s="0">
         <v>202.55600000000001</v>
@@ -34438,19 +37570,19 @@
         <v>7</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>4113</v>
+        <v>5157</v>
       </c>
       <c r="S15" s="0">
         <v>270520</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U15" s="0">
         <v>2</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>4133</v>
+        <v>5177</v>
       </c>
       <c r="W15" s="0">
         <v>215.458</v>
@@ -34554,19 +37686,19 @@
         <v>4.2187999999999999</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>4114</v>
+        <v>5158</v>
       </c>
       <c r="S16" s="0">
         <v>251018</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U16" s="0">
         <v>2</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>4134</v>
+        <v>5178</v>
       </c>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
@@ -34658,19 +37790,19 @@
         <v>2.0312000000000001</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>4114</v>
+        <v>5158</v>
       </c>
       <c r="S17" s="0">
         <v>251018</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U17" s="0">
         <v>2</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>4135</v>
+        <v>5179</v>
       </c>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
@@ -34762,19 +37894,19 @@
         <v>0.65625</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>4114</v>
+        <v>5158</v>
       </c>
       <c r="S18" s="0">
         <v>251018</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U18" s="0">
         <v>2</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>4136</v>
+        <v>5180</v>
       </c>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
@@ -34870,13 +38002,13 @@
         <v>261018</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U19" s="0">
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>4137</v>
+        <v>5181</v>
       </c>
       <c r="W19" s="0">
         <v>259.35399999999998</v>
@@ -34984,13 +38116,13 @@
         <v>261018</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U20" s="0">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>4138</v>
+        <v>5182</v>
       </c>
       <c r="W20" s="0">
         <v>313.976</v>
@@ -35098,13 +38230,13 @@
         <v>261018</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U21" s="0">
         <v>2</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>4139</v>
+        <v>5183</v>
       </c>
       <c r="W21" s="0">
         <v>221.81899999999999</v>
@@ -35212,13 +38344,13 @@
         <v>261018</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U22" s="0">
         <v>2</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>4140</v>
+        <v>5184</v>
       </c>
       <c r="W22" s="0">
         <v>319.649</v>
@@ -35326,13 +38458,13 @@
         <v>220519</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U23" s="0">
         <v>1</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>4141</v>
+        <v>5185</v>
       </c>
       <c r="W23" s="0"/>
       <c r="X23" s="0"/>
@@ -35428,13 +38560,13 @@
         <v>220519</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U24" s="0">
         <v>1</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>4142</v>
+        <v>5186</v>
       </c>
       <c r="W24" s="0"/>
       <c r="X24" s="0"/>
@@ -35530,13 +38662,13 @@
         <v>220519</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U25" s="0">
         <v>2</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>4143</v>
+        <v>5187</v>
       </c>
       <c r="W25" s="0"/>
       <c r="X25" s="0"/>
@@ -35632,13 +38764,13 @@
         <v>220519</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>4117</v>
+        <v>5161</v>
       </c>
       <c r="U26" s="0">
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>4144</v>
+        <v>5188</v>
       </c>
       <c r="W26" s="0"/>
       <c r="X26" s="0"/>
@@ -35728,118 +38860,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4161</v>
+        <v>5205</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4162</v>
+        <v>5206</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4163</v>
+        <v>5207</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4164</v>
+        <v>5208</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4165</v>
+        <v>5209</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4166</v>
+        <v>5210</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4167</v>
+        <v>5211</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4168</v>
+        <v>5212</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>4169</v>
+        <v>5213</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>4170</v>
+        <v>5214</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>4171</v>
+        <v>5215</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>4172</v>
+        <v>5216</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>4173</v>
+        <v>5217</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>4174</v>
+        <v>5218</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>4175</v>
+        <v>5219</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>4176</v>
+        <v>5220</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>4177</v>
+        <v>5221</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>4178</v>
+        <v>5222</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>4191</v>
+        <v>5235</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>4192</v>
+        <v>5236</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>4194</v>
+        <v>5238</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>4195</v>
+        <v>5239</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>4218</v>
+        <v>5262</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>4219</v>
+        <v>5263</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>4220</v>
+        <v>5264</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>4221</v>
+        <v>5265</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>4222</v>
+        <v>5266</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>4223</v>
+        <v>5267</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>4224</v>
+        <v>5268</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>4225</v>
+        <v>5269</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>4226</v>
+        <v>5270</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>4227</v>
+        <v>5271</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>4228</v>
+        <v>5272</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>4229</v>
+        <v>5273</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>4230</v>
+        <v>5274</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>4231</v>
+        <v>5275</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>4232</v>
+        <v>5276</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>4233</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2">
@@ -35895,19 +39027,19 @@
         <v>5</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>4179</v>
+        <v>5223</v>
       </c>
       <c r="S2" s="0">
         <v>31218</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U2" s="0">
         <v>2</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>4196</v>
+        <v>5240</v>
       </c>
       <c r="W2" s="0">
         <v>140.221</v>
@@ -36011,19 +39143,19 @@
         <v>5</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>4180</v>
+        <v>5224</v>
       </c>
       <c r="S3" s="0">
         <v>31218</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U3" s="0">
         <v>2</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>4197</v>
+        <v>5241</v>
       </c>
       <c r="W3" s="0">
         <v>271.06599999999997</v>
@@ -36127,19 +39259,19 @@
         <v>7</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>4180</v>
+        <v>5224</v>
       </c>
       <c r="S4" s="0">
         <v>31218</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U4" s="0">
         <v>2</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>4198</v>
+        <v>5242</v>
       </c>
       <c r="W4" s="0">
         <v>275.89999999999998</v>
@@ -36243,19 +39375,19 @@
         <v>4</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>4181</v>
+        <v>5225</v>
       </c>
       <c r="S5" s="0">
         <v>171218</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U5" s="0">
         <v>2</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>4199</v>
+        <v>5243</v>
       </c>
       <c r="W5" s="0">
         <v>316.25900000000001</v>
@@ -36359,19 +39491,19 @@
         <v>5</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>4182</v>
+        <v>5226</v>
       </c>
       <c r="S6" s="0">
         <v>171218</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U6" s="0">
         <v>2</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>4200</v>
+        <v>5244</v>
       </c>
       <c r="W6" s="0">
         <v>330.71899999999999</v>
@@ -36475,19 +39607,19 @@
         <v>5</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>4182</v>
+        <v>5226</v>
       </c>
       <c r="S7" s="0">
         <v>171218</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U7" s="0">
         <v>2</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>4201</v>
+        <v>5245</v>
       </c>
       <c r="W7" s="0">
         <v>222.124</v>
@@ -36591,19 +39723,19 @@
         <v>3</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>4183</v>
+        <v>5227</v>
       </c>
       <c r="S8" s="0">
         <v>171218</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U8" s="0">
         <v>2</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>4202</v>
+        <v>5246</v>
       </c>
       <c r="W8" s="0">
         <v>286.29000000000002</v>
@@ -36707,19 +39839,19 @@
         <v>4</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>4183</v>
+        <v>5227</v>
       </c>
       <c r="S9" s="0">
         <v>171218</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U9" s="0">
         <v>3</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>4203</v>
+        <v>5247</v>
       </c>
       <c r="W9" s="0">
         <v>147.30500000000001</v>
@@ -36823,19 +39955,19 @@
         <v>4</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>4184</v>
+        <v>5228</v>
       </c>
       <c r="S10" s="0">
         <v>171218</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U10" s="0">
         <v>3</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>4204</v>
+        <v>5248</v>
       </c>
       <c r="W10" s="0">
         <v>172.61199999999999</v>
@@ -36939,19 +40071,19 @@
         <v>3</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>4185</v>
+        <v>5229</v>
       </c>
       <c r="S11" s="0">
         <v>70219</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U11" s="0">
         <v>3</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>4205</v>
+        <v>5249</v>
       </c>
       <c r="W11" s="0">
         <v>462.14100000000002</v>
@@ -37055,19 +40187,19 @@
         <v>5</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>4186</v>
+        <v>5230</v>
       </c>
       <c r="S12" s="0">
         <v>70219</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U12" s="0">
         <v>3</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>4206</v>
+        <v>5250</v>
       </c>
       <c r="W12" s="0">
         <v>199.196</v>
@@ -37171,19 +40303,19 @@
         <v>4</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>4186</v>
+        <v>5230</v>
       </c>
       <c r="S13" s="0">
         <v>80219</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U13" s="0">
         <v>2</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>4207</v>
+        <v>5251</v>
       </c>
       <c r="W13" s="0">
         <v>118.5</v>
@@ -37287,19 +40419,19 @@
         <v>5</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>4186</v>
+        <v>5230</v>
       </c>
       <c r="S14" s="0">
         <v>80219</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>4208</v>
+        <v>5252</v>
       </c>
       <c r="W14" s="0">
         <v>201.71199999999999</v>
@@ -37403,19 +40535,19 @@
         <v>3</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>4187</v>
+        <v>5231</v>
       </c>
       <c r="S15" s="0">
         <v>80219</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U15" s="0">
         <v>2</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>4209</v>
+        <v>5253</v>
       </c>
       <c r="W15" s="0">
         <v>384.01299999999998</v>
@@ -37519,19 +40651,19 @@
         <v>4</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>4187</v>
+        <v>5231</v>
       </c>
       <c r="S16" s="0">
         <v>80219</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U16" s="0">
         <v>2</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>4210</v>
+        <v>5254</v>
       </c>
       <c r="W16" s="0">
         <v>319.01100000000002</v>
@@ -37635,19 +40767,19 @@
         <v>5</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>4188</v>
+        <v>5232</v>
       </c>
       <c r="S17" s="0">
         <v>80219</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U17" s="0">
         <v>2</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>4211</v>
+        <v>5255</v>
       </c>
       <c r="W17" s="0">
         <v>259.53100000000001</v>
@@ -37751,19 +40883,19 @@
         <v>3</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>4189</v>
+        <v>5233</v>
       </c>
       <c r="S18" s="0">
         <v>80219</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U18" s="0">
         <v>2</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>4212</v>
+        <v>5256</v>
       </c>
       <c r="W18" s="0">
         <v>307.721</v>
@@ -37867,19 +40999,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S19" s="0">
         <v>120219</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U19" s="0">
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>4213</v>
+        <v>5257</v>
       </c>
       <c r="W19" s="0">
         <v>188.19800000000001</v>
@@ -37983,19 +41115,19 @@
         <v>5</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S20" s="0">
         <v>120219</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U20" s="0">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>4214</v>
+        <v>5258</v>
       </c>
       <c r="W20" s="0">
         <v>118.57599999999999</v>
@@ -38099,19 +41231,19 @@
         <v>4</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S21" s="0">
         <v>120219</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U21" s="0">
         <v>2</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>4215</v>
+        <v>5259</v>
       </c>
       <c r="W21" s="0">
         <v>320.55099999999999</v>
@@ -38215,19 +41347,19 @@
         <v>2</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S22" s="0">
         <v>150519</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U22" s="0">
         <v>2</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>4215</v>
+        <v>5259</v>
       </c>
       <c r="W22" s="0">
         <v>306.83999999999997</v>
@@ -38331,19 +41463,19 @@
         <v>4</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S23" s="0">
         <v>150519</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U23" s="0">
         <v>2</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>4216</v>
+        <v>5260</v>
       </c>
       <c r="W23" s="0">
         <v>187.68700000000001</v>
@@ -38445,19 +41577,19 @@
         <v>4</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>4190</v>
+        <v>5234</v>
       </c>
       <c r="S24" s="0">
         <v>150519</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>4193</v>
+        <v>5237</v>
       </c>
       <c r="U24" s="0">
         <v>2</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>4217</v>
+        <v>5261</v>
       </c>
       <c r="W24" s="0">
         <v>336.72300000000001</v>

--- a/Data/out/Re-organization_Mdl_LR_Signif_preds.xlsx
+++ b/Data/out/Re-organization_Mdl_LR_Signif_preds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8912" uniqueCount="5804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="6330">
   <si>
     <t>Label</t>
   </si>
@@ -15850,6 +15850,1584 @@
   </si>
   <si>
     <t>IInj</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>L2/3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Den</t>
   </si>
   <si>
     <t>Mdl_predictors</t>
@@ -17451,7 +19029,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -17460,13 +19038,25 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17479,177 +19069,177 @@
   <dimension ref="A1:AL64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="10.7109375" customWidth="true"/>
     <col min="18" max="18" width="9.7109375" customWidth="true"/>
     <col min="19" max="19" width="8.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
+    <col min="24" max="24" width="7.7109375" customWidth="true"/>
+    <col min="25" max="25" width="8.7109375" customWidth="true"/>
     <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
-    <col min="32" max="32" width="9.42578125" customWidth="true"/>
+    <col min="31" max="31" width="11.48828125" customWidth="true"/>
+    <col min="32" max="32" width="8.7109375" customWidth="true"/>
     <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="10.7109375" customWidth="true"/>
     <col min="35" max="35" width="10.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5278</v>
+        <v>5804</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5292</v>
+        <v>5818</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5293</v>
+        <v>5819</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5295</v>
+        <v>5821</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5296</v>
+        <v>5822</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5358</v>
+        <v>5884</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5359</v>
+        <v>5885</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5360</v>
+        <v>5886</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5361</v>
+        <v>5887</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5362</v>
+        <v>5888</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5363</v>
+        <v>5889</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5364</v>
+        <v>5890</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5365</v>
+        <v>5891</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5366</v>
+        <v>5892</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5367</v>
+        <v>5893</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5368</v>
+        <v>5894</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5369</v>
+        <v>5895</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5370</v>
+        <v>5896</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5371</v>
+        <v>5897</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5372</v>
+        <v>5898</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5373</v>
+        <v>5899</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5374</v>
+        <v>5900</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5375</v>
+        <v>5901</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5376</v>
+        <v>5902</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5377</v>
+        <v>5903</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5378</v>
+        <v>5904</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5379</v>
+        <v>5905</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5380</v>
+        <v>5906</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5381</v>
+        <v>5907</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5382</v>
+        <v>5908</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5383</v>
+        <v>5909</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5384</v>
+        <v>5910</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5385</v>
+        <v>5911</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5386</v>
+        <v>5912</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5387</v>
+        <v>5913</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5388</v>
+        <v>5914</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5389</v>
+        <v>5915</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5390</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5279</v>
+        <v>5805</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5297</v>
+        <v>5823</v>
       </c>
       <c r="F2" s="0">
         <v>335.24099999999999</v>
@@ -17753,19 +19343,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5280</v>
+        <v>5806</v>
       </c>
       <c r="B3" s="0">
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5298</v>
+        <v>5824</v>
       </c>
       <c r="F3" s="0">
         <v>336.37799999999999</v>
@@ -17869,19 +19459,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5280</v>
+        <v>5806</v>
       </c>
       <c r="B4" s="0">
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5299</v>
+        <v>5825</v>
       </c>
       <c r="F4" s="0">
         <v>222.042</v>
@@ -17985,19 +19575,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5300</v>
+        <v>5826</v>
       </c>
       <c r="F5" s="0">
         <v>271.291</v>
@@ -18101,19 +19691,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B6" s="0">
         <v>70518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5301</v>
+        <v>5827</v>
       </c>
       <c r="F6" s="0">
         <v>215.91800000000001</v>
@@ -18217,19 +19807,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5302</v>
+        <v>5828</v>
       </c>
       <c r="F7" s="0">
         <v>306.01499999999999</v>
@@ -18333,19 +19923,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B8" s="0">
         <v>50618</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5303</v>
+        <v>5829</v>
       </c>
       <c r="F8" s="0">
         <v>224.083</v>
@@ -18449,19 +20039,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B9" s="0">
         <v>50618</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5304</v>
+        <v>5830</v>
       </c>
       <c r="F9" s="0">
         <v>280.95600000000002</v>
@@ -18565,19 +20155,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B10" s="0">
         <v>50618</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5305</v>
+        <v>5831</v>
       </c>
       <c r="F10" s="0">
         <v>276.09399999999999</v>
@@ -18681,19 +20271,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B11" s="0">
         <v>50618</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5306</v>
+        <v>5832</v>
       </c>
       <c r="F11" s="0">
         <v>175.17099999999999</v>
@@ -18797,19 +20387,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5281</v>
+        <v>5807</v>
       </c>
       <c r="B12" s="0">
         <v>50618</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5307</v>
+        <v>5833</v>
       </c>
       <c r="F12" s="0">
         <v>216.12</v>
@@ -18913,19 +20503,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5282</v>
+        <v>5808</v>
       </c>
       <c r="B13" s="0">
         <v>50618</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5308</v>
+        <v>5834</v>
       </c>
       <c r="F13" s="0">
         <v>242.666</v>
@@ -19029,19 +20619,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B14" s="0">
         <v>50618</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5309</v>
+        <v>5835</v>
       </c>
       <c r="F14" s="0">
         <v>307.11799999999999</v>
@@ -19145,19 +20735,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B15" s="0">
         <v>311018</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5310</v>
+        <v>5836</v>
       </c>
       <c r="F15" s="0">
         <v>441.27699999999999</v>
@@ -19261,19 +20851,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B16" s="0">
         <v>311018</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5311</v>
+        <v>5837</v>
       </c>
       <c r="F16" s="0">
         <v>497.51299999999998</v>
@@ -19377,19 +20967,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B17" s="0">
         <v>311018</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5312</v>
+        <v>5838</v>
       </c>
       <c r="F17" s="0">
         <v>350.10000000000002</v>
@@ -19493,19 +21083,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B18" s="0">
         <v>310120</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D18" s="0">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5313</v>
+        <v>5839</v>
       </c>
       <c r="F18" s="0">
         <v>207.78</v>
@@ -19609,19 +21199,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B19" s="0">
         <v>260420</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5314</v>
+        <v>5840</v>
       </c>
       <c r="F19" s="0">
         <v>194.15100000000001</v>
@@ -19725,19 +21315,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B20" s="0">
         <v>260420</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5315</v>
+        <v>5841</v>
       </c>
       <c r="F20" s="0">
         <v>191.27199999999999</v>
@@ -19841,19 +21431,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B21" s="0">
         <v>280420</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5316</v>
+        <v>5842</v>
       </c>
       <c r="F21" s="0">
         <v>213.84800000000001</v>
@@ -19957,19 +21547,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5283</v>
+        <v>5809</v>
       </c>
       <c r="B22" s="0">
         <v>280420</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5317</v>
+        <v>5843</v>
       </c>
       <c r="F22" s="0">
         <v>236.59800000000001</v>
@@ -20073,19 +21663,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5284</v>
+        <v>5810</v>
       </c>
       <c r="B23" s="0">
         <v>280420</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5318</v>
+        <v>5844</v>
       </c>
       <c r="F23" s="0">
         <v>276.35300000000001</v>
@@ -20189,19 +21779,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5284</v>
+        <v>5810</v>
       </c>
       <c r="B24" s="0">
         <v>290420</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5319</v>
+        <v>5845</v>
       </c>
       <c r="F24" s="0">
         <v>285.56299999999999</v>
@@ -20305,19 +21895,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5285</v>
+        <v>5811</v>
       </c>
       <c r="B25" s="0">
         <v>290420</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5320</v>
+        <v>5846</v>
       </c>
       <c r="F25" s="0">
         <v>200.02000000000001</v>
@@ -20421,19 +22011,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5285</v>
+        <v>5811</v>
       </c>
       <c r="B26" s="0">
         <v>290420</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D26" s="0">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5321</v>
+        <v>5847</v>
       </c>
       <c r="F26" s="0">
         <v>323.95299999999997</v>
@@ -20537,19 +22127,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5285</v>
+        <v>5811</v>
       </c>
       <c r="B27" s="0">
         <v>290420</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D27" s="0">
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5322</v>
+        <v>5848</v>
       </c>
       <c r="F27" s="0">
         <v>429.96699999999998</v>
@@ -20653,19 +22243,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5285</v>
+        <v>5811</v>
       </c>
       <c r="B28" s="0">
         <v>20520</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>5323</v>
+        <v>5849</v>
       </c>
       <c r="F28" s="0">
         <v>318.19099999999997</v>
@@ -20769,19 +22359,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5286</v>
+        <v>5812</v>
       </c>
       <c r="B29" s="0">
         <v>20520</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>5324</v>
+        <v>5850</v>
       </c>
       <c r="F29" s="0">
         <v>287.245</v>
@@ -20885,19 +22475,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5287</v>
+        <v>5813</v>
       </c>
       <c r="B30" s="0">
         <v>20520</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>5325</v>
+        <v>5851</v>
       </c>
       <c r="F30" s="0">
         <v>210.65700000000001</v>
@@ -21001,19 +22591,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5287</v>
+        <v>5813</v>
       </c>
       <c r="B31" s="0">
         <v>20520</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D31" s="0">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>5326</v>
+        <v>5852</v>
       </c>
       <c r="F31" s="0">
         <v>266.67000000000002</v>
@@ -21117,19 +22707,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5287</v>
+        <v>5813</v>
       </c>
       <c r="B32" s="0">
         <v>60520</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5327</v>
+        <v>5853</v>
       </c>
       <c r="F32" s="0">
         <v>437.94799999999998</v>
@@ -21233,19 +22823,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5287</v>
+        <v>5813</v>
       </c>
       <c r="B33" s="0">
         <v>60520</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D33" s="0">
         <v>3</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5328</v>
+        <v>5854</v>
       </c>
       <c r="F33" s="0">
         <v>232.065</v>
@@ -21349,19 +22939,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5288</v>
+        <v>5814</v>
       </c>
       <c r="B34" s="0">
         <v>60520</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D34" s="0">
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>5329</v>
+        <v>5855</v>
       </c>
       <c r="F34" s="0">
         <v>135.01499999999999</v>
@@ -21465,19 +23055,19 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5289</v>
+        <v>5815</v>
       </c>
       <c r="B35" s="0">
         <v>41220</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D35" s="0">
         <v>3</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>5330</v>
+        <v>5856</v>
       </c>
       <c r="F35" s="0">
         <v>323.87700000000001</v>
@@ -21581,19 +23171,19 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5289</v>
+        <v>5815</v>
       </c>
       <c r="B36" s="0">
         <v>30221</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>5331</v>
+        <v>5857</v>
       </c>
       <c r="F36" s="0">
         <v>261.61900000000003</v>
@@ -21697,19 +23287,19 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5290</v>
+        <v>5816</v>
       </c>
       <c r="B37" s="0">
         <v>30221</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>5332</v>
+        <v>5858</v>
       </c>
       <c r="F37" s="0">
         <v>273.03199999999998</v>
@@ -21813,19 +23403,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5291</v>
+        <v>5817</v>
       </c>
       <c r="B38" s="0">
         <v>40221</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D38" s="0">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>5332</v>
+        <v>5858</v>
       </c>
       <c r="F38" s="0">
         <v>292.33100000000002</v>
@@ -21929,19 +23519,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5291</v>
+        <v>5817</v>
       </c>
       <c r="B39" s="0">
         <v>40221</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D39" s="0">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>5333</v>
+        <v>5859</v>
       </c>
       <c r="F39" s="0">
         <v>289.10000000000002</v>
@@ -22049,13 +23639,13 @@
         <v>300518</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D40" s="0">
         <v>1</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>5333</v>
+        <v>5859</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -22151,13 +23741,13 @@
         <v>300518</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D41" s="0">
         <v>1</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>5334</v>
+        <v>5860</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
@@ -22253,13 +23843,13 @@
         <v>300518</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D42" s="0">
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>5335</v>
+        <v>5861</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -22355,13 +23945,13 @@
         <v>300518</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D43" s="0">
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>5336</v>
+        <v>5862</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -22457,13 +24047,13 @@
         <v>300518</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D44" s="0">
         <v>2</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>5337</v>
+        <v>5863</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -22559,13 +24149,13 @@
         <v>300518</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D45" s="0">
         <v>3</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>5338</v>
+        <v>5864</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -22661,13 +24251,13 @@
         <v>300518</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D46" s="0">
         <v>3</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>5339</v>
+        <v>5865</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -22763,13 +24353,13 @@
         <v>300518</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D47" s="0">
         <v>3</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>5340</v>
+        <v>5866</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -22865,13 +24455,13 @@
         <v>70618</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D48" s="0">
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>5341</v>
+        <v>5867</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -22967,13 +24557,13 @@
         <v>70618</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D49" s="0">
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>5342</v>
+        <v>5868</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
@@ -23069,13 +24659,13 @@
         <v>70618</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D50" s="0">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>5343</v>
+        <v>5869</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
@@ -23171,13 +24761,13 @@
         <v>70618</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D51" s="0">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>5344</v>
+        <v>5870</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
@@ -23273,13 +24863,13 @@
         <v>70618</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D52" s="0">
         <v>2</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>5345</v>
+        <v>5871</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0"/>
@@ -23375,13 +24965,13 @@
         <v>70618</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D53" s="0">
         <v>2</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>5346</v>
+        <v>5872</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0"/>
@@ -23477,13 +25067,13 @@
         <v>70618</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D54" s="0">
         <v>2</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5347</v>
+        <v>5873</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0"/>
@@ -23579,13 +25169,13 @@
         <v>70618</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D55" s="0">
         <v>3</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>5348</v>
+        <v>5874</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0"/>
@@ -23681,13 +25271,13 @@
         <v>70618</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D56" s="0">
         <v>3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>5349</v>
+        <v>5875</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0"/>
@@ -23783,13 +25373,13 @@
         <v>70618</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D57" s="0">
         <v>3</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>5350</v>
+        <v>5876</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0"/>
@@ -23885,13 +25475,13 @@
         <v>70618</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D58" s="0">
         <v>3</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>5351</v>
+        <v>5877</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0"/>
@@ -23987,13 +25577,13 @@
         <v>80618</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D59" s="0">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>5352</v>
+        <v>5878</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
@@ -24089,13 +25679,13 @@
         <v>80618</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D60" s="0">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>5353</v>
+        <v>5879</v>
       </c>
       <c r="F60" s="0"/>
       <c r="G60" s="0"/>
@@ -24191,13 +25781,13 @@
         <v>80618</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D61" s="0">
         <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>5354</v>
+        <v>5880</v>
       </c>
       <c r="F61" s="0"/>
       <c r="G61" s="0"/>
@@ -24293,13 +25883,13 @@
         <v>80618</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D62" s="0">
         <v>3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>5355</v>
+        <v>5881</v>
       </c>
       <c r="F62" s="0"/>
       <c r="G62" s="0"/>
@@ -24395,13 +25985,13 @@
         <v>80618</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D63" s="0">
         <v>3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>5356</v>
+        <v>5882</v>
       </c>
       <c r="F63" s="0"/>
       <c r="G63" s="0"/>
@@ -24497,13 +26087,13 @@
         <v>80618</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>5294</v>
+        <v>5820</v>
       </c>
       <c r="D64" s="0">
         <v>3</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>5357</v>
+        <v>5883</v>
       </c>
       <c r="F64" s="0"/>
       <c r="G64" s="0"/>
@@ -24602,177 +26192,177 @@
   <dimension ref="A1:AL28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10" customWidth="true"/>
-    <col min="18" max="18" width="8.7109375" customWidth="true"/>
+    <col min="17" max="17" width="9.15625" customWidth="true"/>
+    <col min="18" max="18" width="7.93359375" customWidth="true"/>
     <col min="19" max="19" width="7.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
-    <col min="26" max="26" width="8.140625" customWidth="true"/>
+    <col min="24" max="24" width="7.7109375" customWidth="true"/>
+    <col min="25" max="25" width="8.7109375" customWidth="true"/>
+    <col min="26" max="26" width="7.93359375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
+    <col min="31" max="31" width="11.48828125" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="7.7109375" customWidth="true"/>
-    <col min="34" max="34" width="8.140625" customWidth="true"/>
+    <col min="34" max="34" width="7.82421875" customWidth="true"/>
     <col min="35" max="35" width="7.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5391</v>
+        <v>5917</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5407</v>
+        <v>5933</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5408</v>
+        <v>5934</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5410</v>
+        <v>5936</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5411</v>
+        <v>5937</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5439</v>
+        <v>5965</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5440</v>
+        <v>5966</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5441</v>
+        <v>5967</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5442</v>
+        <v>5968</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5443</v>
+        <v>5969</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5444</v>
+        <v>5970</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5445</v>
+        <v>5971</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5446</v>
+        <v>5972</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5447</v>
+        <v>5973</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5448</v>
+        <v>5974</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5449</v>
+        <v>5975</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5450</v>
+        <v>5976</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5451</v>
+        <v>5977</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5452</v>
+        <v>5978</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5453</v>
+        <v>5979</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5454</v>
+        <v>5980</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5455</v>
+        <v>5981</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5456</v>
+        <v>5982</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5457</v>
+        <v>5983</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5458</v>
+        <v>5984</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5459</v>
+        <v>5985</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5460</v>
+        <v>5986</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5461</v>
+        <v>5987</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5462</v>
+        <v>5988</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5463</v>
+        <v>5989</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5464</v>
+        <v>5990</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5465</v>
+        <v>5991</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5466</v>
+        <v>5992</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5467</v>
+        <v>5993</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5468</v>
+        <v>5994</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5469</v>
+        <v>5995</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5470</v>
+        <v>5996</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5471</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5392</v>
+        <v>5918</v>
       </c>
       <c r="B2" s="0">
         <v>220918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5412</v>
+        <v>5938</v>
       </c>
       <c r="F2" s="0">
         <v>180.036</v>
@@ -24876,19 +26466,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5393</v>
+        <v>5919</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5413</v>
+        <v>5939</v>
       </c>
       <c r="F3" s="0">
         <v>347.30900000000003</v>
@@ -24992,19 +26582,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5394</v>
+        <v>5920</v>
       </c>
       <c r="B4" s="0">
         <v>250320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5414</v>
+        <v>5940</v>
       </c>
       <c r="F4" s="0">
         <v>244.93600000000001</v>
@@ -25108,19 +26698,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5394</v>
+        <v>5920</v>
       </c>
       <c r="B5" s="0">
         <v>260320</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5415</v>
+        <v>5941</v>
       </c>
       <c r="F5" s="0">
         <v>388.26799999999997</v>
@@ -25224,19 +26814,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5394</v>
+        <v>5920</v>
       </c>
       <c r="B6" s="0">
         <v>260320</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5416</v>
+        <v>5942</v>
       </c>
       <c r="F6" s="0">
         <v>411.06299999999999</v>
@@ -25340,19 +26930,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5395</v>
+        <v>5921</v>
       </c>
       <c r="B7" s="0">
         <v>260320</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5417</v>
+        <v>5943</v>
       </c>
       <c r="F7" s="0">
         <v>337.81299999999999</v>
@@ -25452,19 +27042,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5395</v>
+        <v>5921</v>
       </c>
       <c r="B8" s="0">
         <v>140520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5418</v>
+        <v>5944</v>
       </c>
       <c r="F8" s="0">
         <v>317.09500000000003</v>
@@ -25564,19 +27154,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5396</v>
+        <v>5922</v>
       </c>
       <c r="B9" s="0">
         <v>150520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5419</v>
+        <v>5945</v>
       </c>
       <c r="F9" s="0">
         <v>365.92200000000003</v>
@@ -25680,19 +27270,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5397</v>
+        <v>5923</v>
       </c>
       <c r="B10" s="0">
         <v>150520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5420</v>
+        <v>5946</v>
       </c>
       <c r="F10" s="0">
         <v>377.28100000000001</v>
@@ -25792,19 +27382,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5398</v>
+        <v>5924</v>
       </c>
       <c r="B11" s="0">
         <v>150520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5421</v>
+        <v>5947</v>
       </c>
       <c r="F11" s="0">
         <v>289.39800000000002</v>
@@ -25908,19 +27498,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5398</v>
+        <v>5924</v>
       </c>
       <c r="B12" s="0">
         <v>180520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5422</v>
+        <v>5948</v>
       </c>
       <c r="F12" s="0">
         <v>196.983</v>
@@ -26024,19 +27614,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5398</v>
+        <v>5924</v>
       </c>
       <c r="B13" s="0">
         <v>180520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5423</v>
+        <v>5949</v>
       </c>
       <c r="F13" s="0">
         <v>165.46199999999999</v>
@@ -26140,19 +27730,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5398</v>
+        <v>5924</v>
       </c>
       <c r="B14" s="0">
         <v>190520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5424</v>
+        <v>5950</v>
       </c>
       <c r="F14" s="0">
         <v>233.34200000000001</v>
@@ -26256,19 +27846,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5399</v>
+        <v>5925</v>
       </c>
       <c r="B15" s="0">
         <v>190520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5425</v>
+        <v>5951</v>
       </c>
       <c r="F15" s="0">
         <v>282.97399999999999</v>
@@ -26372,19 +27962,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5400</v>
+        <v>5926</v>
       </c>
       <c r="B16" s="0">
         <v>190520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5426</v>
+        <v>5952</v>
       </c>
       <c r="F16" s="0">
         <v>303.07499999999999</v>
@@ -26488,19 +28078,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5401</v>
+        <v>5927</v>
       </c>
       <c r="B17" s="0">
         <v>190520</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5427</v>
+        <v>5953</v>
       </c>
       <c r="F17" s="0">
         <v>446.63299999999998</v>
@@ -26604,19 +28194,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5402</v>
+        <v>5928</v>
       </c>
       <c r="B18" s="0">
         <v>200520</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5428</v>
+        <v>5954</v>
       </c>
       <c r="F18" s="0">
         <v>444.55000000000001</v>
@@ -26720,19 +28310,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5402</v>
+        <v>5928</v>
       </c>
       <c r="B19" s="0">
         <v>200520</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5429</v>
+        <v>5955</v>
       </c>
       <c r="F19" s="0">
         <v>342.065</v>
@@ -26836,19 +28426,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5403</v>
+        <v>5929</v>
       </c>
       <c r="B20" s="0">
         <v>210520</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5430</v>
+        <v>5956</v>
       </c>
       <c r="F20" s="0">
         <v>300.43700000000001</v>
@@ -26952,19 +28542,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5404</v>
+        <v>5930</v>
       </c>
       <c r="B21" s="0">
         <v>210520</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D21" s="0">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5431</v>
+        <v>5957</v>
       </c>
       <c r="F21" s="0">
         <v>365.94400000000002</v>
@@ -27068,19 +28658,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5404</v>
+        <v>5930</v>
       </c>
       <c r="B22" s="0">
         <v>210520</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5432</v>
+        <v>5958</v>
       </c>
       <c r="F22" s="0">
         <v>510.767</v>
@@ -27184,19 +28774,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5405</v>
+        <v>5931</v>
       </c>
       <c r="B23" s="0">
         <v>240520</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5433</v>
+        <v>5959</v>
       </c>
       <c r="F23" s="0">
         <v>236.59800000000001</v>
@@ -27300,19 +28890,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5405</v>
+        <v>5931</v>
       </c>
       <c r="B24" s="0">
         <v>240520</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5434</v>
+        <v>5960</v>
       </c>
       <c r="F24" s="0">
         <v>260.12</v>
@@ -27416,19 +29006,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5406</v>
+        <v>5932</v>
       </c>
       <c r="B25" s="0">
         <v>240520</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5435</v>
+        <v>5961</v>
       </c>
       <c r="F25" s="0">
         <v>327.06700000000001</v>
@@ -27532,19 +29122,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5406</v>
+        <v>5932</v>
       </c>
       <c r="B26" s="0">
         <v>240520</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5436</v>
+        <v>5962</v>
       </c>
       <c r="F26" s="0">
         <v>246.61199999999999</v>
@@ -27652,13 +29242,13 @@
         <v>40918</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5437</v>
+        <v>5963</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
@@ -27754,13 +29344,13 @@
         <v>40918</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5409</v>
+        <v>5935</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>5438</v>
+        <v>5964</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -27859,177 +29449,177 @@
   <dimension ref="A1:AL17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10" customWidth="true"/>
-    <col min="18" max="18" width="8.7109375" customWidth="true"/>
+    <col min="17" max="17" width="9.15625" customWidth="true"/>
+    <col min="18" max="18" width="7.93359375" customWidth="true"/>
     <col min="19" max="19" width="7.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
+    <col min="24" max="24" width="7.7109375" customWidth="true"/>
+    <col min="25" max="25" width="8.7109375" customWidth="true"/>
     <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
-    <col min="32" max="32" width="9.42578125" customWidth="true"/>
+    <col min="31" max="31" width="11.48828125" customWidth="true"/>
+    <col min="32" max="32" width="8.7109375" customWidth="true"/>
     <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="10.7109375" customWidth="true"/>
     <col min="35" max="35" width="10.7109375" customWidth="true"/>
-    <col min="36" max="36" width="10.140625" customWidth="true"/>
+    <col min="36" max="36" width="9.15625" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5472</v>
+        <v>5998</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5480</v>
+        <v>6006</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5481</v>
+        <v>6007</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5483</v>
+        <v>6009</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5484</v>
+        <v>6010</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5500</v>
+        <v>6026</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5501</v>
+        <v>6027</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5502</v>
+        <v>6028</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5503</v>
+        <v>6029</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5504</v>
+        <v>6030</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5505</v>
+        <v>6031</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5506</v>
+        <v>6032</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5507</v>
+        <v>6033</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5508</v>
+        <v>6034</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5509</v>
+        <v>6035</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5510</v>
+        <v>6036</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5511</v>
+        <v>6037</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5512</v>
+        <v>6038</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5513</v>
+        <v>6039</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5514</v>
+        <v>6040</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5515</v>
+        <v>6041</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5516</v>
+        <v>6042</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5517</v>
+        <v>6043</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5518</v>
+        <v>6044</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5519</v>
+        <v>6045</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5520</v>
+        <v>6046</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5521</v>
+        <v>6047</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5522</v>
+        <v>6048</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5523</v>
+        <v>6049</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5524</v>
+        <v>6050</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5525</v>
+        <v>6051</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5526</v>
+        <v>6052</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5527</v>
+        <v>6053</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5528</v>
+        <v>6054</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5529</v>
+        <v>6055</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5530</v>
+        <v>6056</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5531</v>
+        <v>6057</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5532</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5473</v>
+        <v>5999</v>
       </c>
       <c r="B2" s="0">
         <v>11018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5485</v>
+        <v>6011</v>
       </c>
       <c r="F2" s="0">
         <v>189.65799999999999</v>
@@ -28133,19 +29723,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5474</v>
+        <v>6000</v>
       </c>
       <c r="B3" s="0">
         <v>21018</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5486</v>
+        <v>6012</v>
       </c>
       <c r="F3" s="0">
         <v>251.38499999999999</v>
@@ -28249,19 +29839,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5475</v>
+        <v>6001</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5486</v>
+        <v>6012</v>
       </c>
       <c r="F4" s="0">
         <v>296.98899999999998</v>
@@ -28365,19 +29955,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5475</v>
+        <v>6001</v>
       </c>
       <c r="B5" s="0">
         <v>160519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5487</v>
+        <v>6013</v>
       </c>
       <c r="F5" s="0">
         <v>261.38</v>
@@ -28481,19 +30071,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5476</v>
+        <v>6002</v>
       </c>
       <c r="B6" s="0">
         <v>160519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5488</v>
+        <v>6014</v>
       </c>
       <c r="F6" s="0">
         <v>370.47000000000003</v>
@@ -28597,19 +30187,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5477</v>
+        <v>6003</v>
       </c>
       <c r="B7" s="0">
         <v>160519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5489</v>
+        <v>6015</v>
       </c>
       <c r="F7" s="0">
         <v>246.60400000000001</v>
@@ -28713,19 +30303,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5477</v>
+        <v>6003</v>
       </c>
       <c r="B8" s="0">
         <v>170519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5490</v>
+        <v>6016</v>
       </c>
       <c r="F8" s="0">
         <v>262.51299999999998</v>
@@ -28829,19 +30419,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5477</v>
+        <v>6003</v>
       </c>
       <c r="B9" s="0">
         <v>170519</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5491</v>
+        <v>6017</v>
       </c>
       <c r="F9" s="0">
         <v>315.73399999999998</v>
@@ -28945,19 +30535,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5478</v>
+        <v>6004</v>
       </c>
       <c r="B10" s="0">
         <v>11018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5492</v>
+        <v>6018</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -29053,13 +30643,13 @@
         <v>11018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5493</v>
+        <v>6019</v>
       </c>
       <c r="F11" s="0">
         <v>185.31200000000001</v>
@@ -29163,19 +30753,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5479</v>
+        <v>6005</v>
       </c>
       <c r="B12" s="0">
         <v>21018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5494</v>
+        <v>6020</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -29271,13 +30861,13 @@
         <v>21018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5495</v>
+        <v>6021</v>
       </c>
       <c r="F13" s="0">
         <v>200.45099999999999</v>
@@ -29385,13 +30975,13 @@
         <v>270319</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5496</v>
+        <v>6022</v>
       </c>
       <c r="F14" s="0">
         <v>325.56900000000002</v>
@@ -29499,13 +31089,13 @@
         <v>270319</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5497</v>
+        <v>6023</v>
       </c>
       <c r="F15" s="0">
         <v>309.09100000000001</v>
@@ -29613,13 +31203,13 @@
         <v>270319</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5498</v>
+        <v>6024</v>
       </c>
       <c r="F16" s="0">
         <v>388.49599999999998</v>
@@ -29648,7 +31238,9 @@
       <c r="N16" s="0">
         <v>0.11235975883765038</v>
       </c>
-      <c r="O16" s="0"/>
+      <c r="O16" s="0">
+        <v>17</v>
+      </c>
       <c r="P16" s="0">
         <v>0.64929628877543166</v>
       </c>
@@ -29725,11 +31317,11 @@
         <v>270319</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5482</v>
+        <v>6008</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0" t="s">
-        <v>5499</v>
+        <v>6025</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -29828,177 +31420,177 @@
   <dimension ref="A1:AL69"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="12.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="10.7109375" customWidth="true"/>
     <col min="18" max="18" width="10.7109375" customWidth="true"/>
     <col min="19" max="19" width="8.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="8.42578125" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="21" max="21" width="8.37890625" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="8.7109375" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
+    <col min="25" max="25" width="8.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
-    <col min="32" max="32" width="9.42578125" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="8.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="8.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5533</v>
+        <v>6059</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5547</v>
+        <v>6073</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5548</v>
+        <v>6074</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5550</v>
+        <v>6076</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5551</v>
+        <v>6077</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5620</v>
+        <v>6146</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5621</v>
+        <v>6147</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5622</v>
+        <v>6148</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5623</v>
+        <v>6149</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5624</v>
+        <v>6150</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5625</v>
+        <v>6151</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5626</v>
+        <v>6152</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5627</v>
+        <v>6153</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5628</v>
+        <v>6154</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5629</v>
+        <v>6155</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5630</v>
+        <v>6156</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5631</v>
+        <v>6157</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5632</v>
+        <v>6158</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5633</v>
+        <v>6159</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5634</v>
+        <v>6160</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5635</v>
+        <v>6161</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5636</v>
+        <v>6162</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5637</v>
+        <v>6163</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5638</v>
+        <v>6164</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5639</v>
+        <v>6165</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5640</v>
+        <v>6166</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5641</v>
+        <v>6167</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5642</v>
+        <v>6168</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5643</v>
+        <v>6169</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5644</v>
+        <v>6170</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5645</v>
+        <v>6171</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5646</v>
+        <v>6172</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5647</v>
+        <v>6173</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5648</v>
+        <v>6174</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5649</v>
+        <v>6175</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5650</v>
+        <v>6176</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5651</v>
+        <v>6177</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5652</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5534</v>
+        <v>6060</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5552</v>
+        <v>6078</v>
       </c>
       <c r="F2" s="0">
         <v>320.36500000000001</v>
@@ -30102,19 +31694,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5534</v>
+        <v>6060</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5553</v>
+        <v>6079</v>
       </c>
       <c r="F3" s="0">
         <v>295.94099999999997</v>
@@ -30218,19 +31810,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5535</v>
+        <v>6061</v>
       </c>
       <c r="B4" s="0">
         <v>30518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5554</v>
+        <v>6080</v>
       </c>
       <c r="F4" s="0">
         <v>468.06799999999998</v>
@@ -30334,19 +31926,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B5" s="0">
         <v>80518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5555</v>
+        <v>6081</v>
       </c>
       <c r="F5" s="0">
         <v>267.404</v>
@@ -30450,19 +32042,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B6" s="0">
         <v>80518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5556</v>
+        <v>6082</v>
       </c>
       <c r="F6" s="0">
         <v>285.625</v>
@@ -30566,19 +32158,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B7" s="0">
         <v>80518</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5557</v>
+        <v>6083</v>
       </c>
       <c r="F7" s="0">
         <v>395.673</v>
@@ -30682,19 +32274,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B8" s="0">
         <v>80818</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5558</v>
+        <v>6084</v>
       </c>
       <c r="F8" s="0">
         <v>270.471</v>
@@ -30798,19 +32390,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B9" s="0">
         <v>80818</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5559</v>
+        <v>6085</v>
       </c>
       <c r="F9" s="0">
         <v>352.30799999999999</v>
@@ -30912,19 +32504,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B10" s="0">
         <v>80818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5560</v>
+        <v>6086</v>
       </c>
       <c r="F10" s="0">
         <v>268.197</v>
@@ -31028,19 +32620,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B11" s="0">
         <v>80818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5561</v>
+        <v>6087</v>
       </c>
       <c r="F11" s="0">
         <v>354.85399999999998</v>
@@ -31144,19 +32736,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B12" s="0">
         <v>80818</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5562</v>
+        <v>6088</v>
       </c>
       <c r="F12" s="0">
         <v>186.501</v>
@@ -31260,19 +32852,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5536</v>
+        <v>6062</v>
       </c>
       <c r="B13" s="0">
         <v>80818</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5563</v>
+        <v>6089</v>
       </c>
       <c r="F13" s="0">
         <v>234.27699999999999</v>
@@ -31376,19 +32968,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5537</v>
+        <v>6063</v>
       </c>
       <c r="B14" s="0">
         <v>41220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5564</v>
+        <v>6090</v>
       </c>
       <c r="F14" s="0">
         <v>457.79899999999998</v>
@@ -31492,19 +33084,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B15" s="0">
         <v>41220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5565</v>
+        <v>6091</v>
       </c>
       <c r="F15" s="0">
         <v>291.68000000000001</v>
@@ -31608,19 +33200,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B16" s="0">
         <v>81220</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5566</v>
+        <v>6092</v>
       </c>
       <c r="F16" s="0">
         <v>181.64099999999999</v>
@@ -31724,19 +33316,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B17" s="0">
         <v>81220</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5567</v>
+        <v>6093</v>
       </c>
       <c r="F17" s="0">
         <v>262.42500000000001</v>
@@ -31840,19 +33432,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B18" s="0">
         <v>91220</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5568</v>
+        <v>6094</v>
       </c>
       <c r="F18" s="0">
         <v>253.44200000000001</v>
@@ -31956,19 +33548,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B19" s="0">
         <v>91220</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5569</v>
+        <v>6095</v>
       </c>
       <c r="F19" s="0">
         <v>226.15700000000001</v>
@@ -32072,19 +33664,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B20" s="0">
         <v>130121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5570</v>
+        <v>6096</v>
       </c>
       <c r="F20" s="0">
         <v>260.637</v>
@@ -32188,19 +33780,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B21" s="0">
         <v>130121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5571</v>
+        <v>6097</v>
       </c>
       <c r="F21" s="0">
         <v>288.64800000000002</v>
@@ -32304,19 +33896,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B22" s="0">
         <v>130121</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D22" s="0">
         <v>5</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5572</v>
+        <v>6098</v>
       </c>
       <c r="F22" s="0">
         <v>236.374</v>
@@ -32420,19 +34012,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B23" s="0">
         <v>180121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5573</v>
+        <v>6099</v>
       </c>
       <c r="F23" s="0">
         <v>186.429</v>
@@ -32536,19 +34128,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5538</v>
+        <v>6064</v>
       </c>
       <c r="B24" s="0">
         <v>180121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5574</v>
+        <v>6100</v>
       </c>
       <c r="F24" s="0">
         <v>254.88499999999999</v>
@@ -32652,19 +34244,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5539</v>
+        <v>6065</v>
       </c>
       <c r="B25" s="0">
         <v>180121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D25" s="0">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5575</v>
+        <v>6101</v>
       </c>
       <c r="F25" s="0">
         <v>258.005</v>
@@ -32768,19 +34360,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5540</v>
+        <v>6066</v>
       </c>
       <c r="B26" s="0">
         <v>180121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D26" s="0">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5576</v>
+        <v>6102</v>
       </c>
       <c r="F26" s="0">
         <v>238.64599999999999</v>
@@ -32884,19 +34476,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5541</v>
+        <v>6067</v>
       </c>
       <c r="B27" s="0">
         <v>190121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5577</v>
+        <v>6103</v>
       </c>
       <c r="F27" s="0">
         <v>470.61599999999999</v>
@@ -33000,19 +34592,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5542</v>
+        <v>6068</v>
       </c>
       <c r="B28" s="0">
         <v>190121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D28" s="0">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>5578</v>
+        <v>6104</v>
       </c>
       <c r="F28" s="0">
         <v>358.39299999999997</v>
@@ -33116,19 +34708,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5543</v>
+        <v>6069</v>
       </c>
       <c r="B29" s="0">
         <v>190121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>5579</v>
+        <v>6105</v>
       </c>
       <c r="F29" s="0">
         <v>301.60399999999998</v>
@@ -33232,19 +34824,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5543</v>
+        <v>6069</v>
       </c>
       <c r="B30" s="0">
         <v>190121</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>5580</v>
+        <v>6106</v>
       </c>
       <c r="F30" s="0">
         <v>207.81700000000001</v>
@@ -33348,19 +34940,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5544</v>
+        <v>6070</v>
       </c>
       <c r="B31" s="0">
         <v>250121</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D31" s="0">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>5581</v>
+        <v>6107</v>
       </c>
       <c r="F31" s="0">
         <v>286.37599999999998</v>
@@ -33464,19 +35056,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5544</v>
+        <v>6070</v>
       </c>
       <c r="B32" s="0">
         <v>250121</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5582</v>
+        <v>6108</v>
       </c>
       <c r="F32" s="0">
         <v>269.71600000000001</v>
@@ -33580,19 +35172,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5544</v>
+        <v>6070</v>
       </c>
       <c r="B33" s="0">
         <v>250121</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5583</v>
+        <v>6109</v>
       </c>
       <c r="F33" s="0">
         <v>240.279</v>
@@ -33696,19 +35288,19 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5545</v>
+        <v>6071</v>
       </c>
       <c r="B34" s="0">
         <v>250121</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>5584</v>
+        <v>6110</v>
       </c>
       <c r="F34" s="0">
         <v>269.327</v>
@@ -33812,19 +35404,19 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5546</v>
+        <v>6072</v>
       </c>
       <c r="B35" s="0">
         <v>250121</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D35" s="0">
         <v>3</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>5585</v>
+        <v>6111</v>
       </c>
       <c r="F35" s="0">
         <v>331.839</v>
@@ -33928,19 +35520,19 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5546</v>
+        <v>6072</v>
       </c>
       <c r="B36" s="0">
         <v>250121</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D36" s="0">
         <v>3</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>5586</v>
+        <v>6112</v>
       </c>
       <c r="F36" s="0">
         <v>301.15100000000001</v>
@@ -34044,19 +35636,19 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5546</v>
+        <v>6072</v>
       </c>
       <c r="B37" s="0">
         <v>250121</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D37" s="0">
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>5587</v>
+        <v>6113</v>
       </c>
       <c r="F37" s="0">
         <v>230.37299999999999</v>
@@ -34160,19 +35752,19 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5546</v>
+        <v>6072</v>
       </c>
       <c r="B38" s="0">
         <v>210618</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D38" s="0">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>5588</v>
+        <v>6114</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -34268,13 +35860,13 @@
         <v>30818</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D39" s="0">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>5589</v>
+        <v>6115</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
@@ -34370,13 +35962,13 @@
         <v>30818</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>5590</v>
+        <v>6116</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -34472,13 +36064,13 @@
         <v>30818</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D41" s="0">
         <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>5591</v>
+        <v>6117</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
@@ -34574,13 +36166,13 @@
         <v>30818</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D42" s="0">
         <v>3</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>5592</v>
+        <v>6118</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -34676,13 +36268,13 @@
         <v>30818</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D43" s="0">
         <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>5593</v>
+        <v>6119</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -34778,13 +36370,13 @@
         <v>30818</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>5594</v>
+        <v>6120</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -34880,13 +36472,13 @@
         <v>30818</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D45" s="0">
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>5595</v>
+        <v>6121</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -34982,13 +36574,13 @@
         <v>30818</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D46" s="0">
         <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>5596</v>
+        <v>6122</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -35084,13 +36676,13 @@
         <v>30818</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D47" s="0">
         <v>2</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>5597</v>
+        <v>6123</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -35186,13 +36778,13 @@
         <v>60818</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D48" s="0">
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>5598</v>
+        <v>6124</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -35288,13 +36880,13 @@
         <v>60818</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D49" s="0">
         <v>3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>5599</v>
+        <v>6125</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
@@ -35390,13 +36982,13 @@
         <v>60818</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D50" s="0">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>5600</v>
+        <v>6126</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
@@ -35492,13 +37084,13 @@
         <v>60818</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D51" s="0">
         <v>2</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>5601</v>
+        <v>6127</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
@@ -35594,13 +37186,13 @@
         <v>60818</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D52" s="0">
         <v>3</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>5602</v>
+        <v>6128</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0"/>
@@ -35696,13 +37288,13 @@
         <v>60818</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D53" s="0">
         <v>3</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>5603</v>
+        <v>6129</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0"/>
@@ -35798,13 +37390,13 @@
         <v>60818</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D54" s="0">
         <v>3</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5604</v>
+        <v>6130</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0"/>
@@ -35900,13 +37492,13 @@
         <v>70818</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D55" s="0">
         <v>1</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>5605</v>
+        <v>6131</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0"/>
@@ -36002,13 +37594,13 @@
         <v>70818</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D56" s="0">
         <v>2</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>5606</v>
+        <v>6132</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0"/>
@@ -36104,13 +37696,13 @@
         <v>70818</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D57" s="0">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>5607</v>
+        <v>6133</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0"/>
@@ -36206,13 +37798,13 @@
         <v>70818</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D58" s="0">
         <v>2</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>5608</v>
+        <v>6134</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0"/>
@@ -36308,13 +37900,13 @@
         <v>70818</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D59" s="0">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>5609</v>
+        <v>6135</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
@@ -36410,13 +38002,13 @@
         <v>70818</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D60" s="0">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>5610</v>
+        <v>6136</v>
       </c>
       <c r="F60" s="0"/>
       <c r="G60" s="0"/>
@@ -36512,13 +38104,13 @@
         <v>70818</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D61" s="0">
         <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>5611</v>
+        <v>6137</v>
       </c>
       <c r="F61" s="0"/>
       <c r="G61" s="0"/>
@@ -36614,13 +38206,13 @@
         <v>70818</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D62" s="0">
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>5612</v>
+        <v>6138</v>
       </c>
       <c r="F62" s="0"/>
       <c r="G62" s="0"/>
@@ -36716,13 +38308,13 @@
         <v>70818</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D63" s="0">
         <v>2</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>5613</v>
+        <v>6139</v>
       </c>
       <c r="F63" s="0"/>
       <c r="G63" s="0"/>
@@ -36818,13 +38410,13 @@
         <v>140818</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D64" s="0">
         <v>1</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>5614</v>
+        <v>6140</v>
       </c>
       <c r="F64" s="0"/>
       <c r="G64" s="0"/>
@@ -36920,13 +38512,13 @@
         <v>140818</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D65" s="0">
         <v>1</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>5615</v>
+        <v>6141</v>
       </c>
       <c r="F65" s="0"/>
       <c r="G65" s="0"/>
@@ -37022,13 +38614,13 @@
         <v>140818</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D66" s="0">
         <v>2</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>5616</v>
+        <v>6142</v>
       </c>
       <c r="F66" s="0"/>
       <c r="G66" s="0"/>
@@ -37124,13 +38716,13 @@
         <v>140818</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D67" s="0">
         <v>2</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>5617</v>
+        <v>6143</v>
       </c>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
@@ -37226,13 +38818,13 @@
         <v>140818</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D68" s="0">
         <v>2</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>5618</v>
+        <v>6144</v>
       </c>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
@@ -37328,13 +38920,13 @@
         <v>140818</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>5549</v>
+        <v>6075</v>
       </c>
       <c r="D69" s="0">
         <v>3</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>5619</v>
+        <v>6145</v>
       </c>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
@@ -37433,177 +39025,177 @@
   <dimension ref="A1:AL26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10" customWidth="true"/>
-    <col min="18" max="18" width="8.7109375" customWidth="true"/>
+    <col min="17" max="17" width="9.15625" customWidth="true"/>
+    <col min="18" max="18" width="7.93359375" customWidth="true"/>
     <col min="19" max="19" width="8.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
+    <col min="24" max="24" width="7.7109375" customWidth="true"/>
+    <col min="25" max="25" width="8.046875" customWidth="true"/>
     <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
+    <col min="31" max="31" width="11.48828125" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="10.7109375" customWidth="true"/>
     <col min="35" max="35" width="10.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5653</v>
+        <v>6179</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5664</v>
+        <v>6190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5665</v>
+        <v>6191</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5667</v>
+        <v>6193</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5668</v>
+        <v>6194</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5694</v>
+        <v>6220</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5695</v>
+        <v>6221</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5696</v>
+        <v>6222</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5697</v>
+        <v>6223</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5698</v>
+        <v>6224</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5699</v>
+        <v>6225</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5700</v>
+        <v>6226</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5701</v>
+        <v>6227</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5702</v>
+        <v>6228</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5703</v>
+        <v>6229</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5704</v>
+        <v>6230</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5705</v>
+        <v>6231</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5706</v>
+        <v>6232</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5707</v>
+        <v>6233</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5708</v>
+        <v>6234</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5709</v>
+        <v>6235</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5710</v>
+        <v>6236</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5711</v>
+        <v>6237</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5712</v>
+        <v>6238</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5713</v>
+        <v>6239</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5714</v>
+        <v>6240</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5715</v>
+        <v>6241</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5716</v>
+        <v>6242</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5717</v>
+        <v>6243</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5718</v>
+        <v>6244</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5719</v>
+        <v>6245</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5720</v>
+        <v>6246</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5721</v>
+        <v>6247</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5722</v>
+        <v>6248</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5723</v>
+        <v>6249</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5724</v>
+        <v>6250</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5725</v>
+        <v>6251</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5726</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5654</v>
+        <v>6180</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5669</v>
+        <v>6195</v>
       </c>
       <c r="F2" s="0">
         <v>466.495</v>
@@ -37707,19 +39299,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5655</v>
+        <v>6181</v>
       </c>
       <c r="B3" s="0">
         <v>220519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5670</v>
+        <v>6196</v>
       </c>
       <c r="F3" s="0">
         <v>348.06799999999998</v>
@@ -37823,19 +39415,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5656</v>
+        <v>6182</v>
       </c>
       <c r="B4" s="0">
         <v>220519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5671</v>
+        <v>6197</v>
       </c>
       <c r="F4" s="0">
         <v>409.49400000000003</v>
@@ -37939,19 +39531,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5656</v>
+        <v>6182</v>
       </c>
       <c r="B5" s="0">
         <v>220519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5672</v>
+        <v>6198</v>
       </c>
       <c r="F5" s="0">
         <v>304.84699999999998</v>
@@ -38055,19 +39647,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5656</v>
+        <v>6182</v>
       </c>
       <c r="B6" s="0">
         <v>290519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5673</v>
+        <v>6199</v>
       </c>
       <c r="F6" s="0">
         <v>235.47399999999999</v>
@@ -38171,19 +39763,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5657</v>
+        <v>6183</v>
       </c>
       <c r="B7" s="0">
         <v>290519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5674</v>
+        <v>6200</v>
       </c>
       <c r="F7" s="0">
         <v>295.85300000000001</v>
@@ -38287,19 +39879,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5658</v>
+        <v>6184</v>
       </c>
       <c r="B8" s="0">
         <v>290519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5675</v>
+        <v>6201</v>
       </c>
       <c r="F8" s="0">
         <v>418.59399999999999</v>
@@ -38403,19 +39995,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5658</v>
+        <v>6184</v>
       </c>
       <c r="B9" s="0">
         <v>300519</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5676</v>
+        <v>6202</v>
       </c>
       <c r="F9" s="0">
         <v>261.40100000000001</v>
@@ -38519,19 +40111,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5658</v>
+        <v>6184</v>
       </c>
       <c r="B10" s="0">
         <v>300519</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5677</v>
+        <v>6203</v>
       </c>
       <c r="F10" s="0">
         <v>232.005</v>
@@ -38635,19 +40227,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5659</v>
+        <v>6185</v>
       </c>
       <c r="B11" s="0">
         <v>300519</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5678</v>
+        <v>6204</v>
       </c>
       <c r="F11" s="0">
         <v>424.30200000000002</v>
@@ -38751,19 +40343,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5659</v>
+        <v>6185</v>
       </c>
       <c r="B12" s="0">
         <v>300519</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5679</v>
+        <v>6205</v>
       </c>
       <c r="F12" s="0">
         <v>437.91899999999998</v>
@@ -38867,19 +40459,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5660</v>
+        <v>6186</v>
       </c>
       <c r="B13" s="0">
         <v>270520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5680</v>
+        <v>6206</v>
       </c>
       <c r="F13" s="0">
         <v>219.21199999999999</v>
@@ -38983,19 +40575,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5661</v>
+        <v>6187</v>
       </c>
       <c r="B14" s="0">
         <v>270520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5681</v>
+        <v>6207</v>
       </c>
       <c r="F14" s="0">
         <v>202.55600000000001</v>
@@ -39099,19 +40691,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5662</v>
+        <v>6188</v>
       </c>
       <c r="B15" s="0">
         <v>270520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5682</v>
+        <v>6208</v>
       </c>
       <c r="F15" s="0">
         <v>215.458</v>
@@ -39215,19 +40807,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5663</v>
+        <v>6189</v>
       </c>
       <c r="B16" s="0">
         <v>251018</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5683</v>
+        <v>6209</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -39319,19 +40911,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5663</v>
+        <v>6189</v>
       </c>
       <c r="B17" s="0">
         <v>251018</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5684</v>
+        <v>6210</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -39423,19 +41015,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5663</v>
+        <v>6189</v>
       </c>
       <c r="B18" s="0">
         <v>251018</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5685</v>
+        <v>6211</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -39531,13 +41123,13 @@
         <v>261018</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5686</v>
+        <v>6212</v>
       </c>
       <c r="F19" s="0">
         <v>259.35399999999998</v>
@@ -39645,13 +41237,13 @@
         <v>261018</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5687</v>
+        <v>6213</v>
       </c>
       <c r="F20" s="0">
         <v>313.976</v>
@@ -39759,13 +41351,13 @@
         <v>261018</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5688</v>
+        <v>6214</v>
       </c>
       <c r="F21" s="0">
         <v>221.81899999999999</v>
@@ -39873,13 +41465,13 @@
         <v>261018</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5689</v>
+        <v>6215</v>
       </c>
       <c r="F22" s="0">
         <v>319.649</v>
@@ -39987,13 +41579,13 @@
         <v>220519</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5690</v>
+        <v>6216</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -40089,13 +41681,13 @@
         <v>220519</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5691</v>
+        <v>6217</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -40191,13 +41783,13 @@
         <v>220519</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5692</v>
+        <v>6218</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -40293,13 +41885,13 @@
         <v>220519</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5666</v>
+        <v>6192</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5693</v>
+        <v>6219</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -40398,177 +41990,177 @@
   <dimension ref="A1:AL24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="10.85546875" customWidth="true"/>
-    <col min="7" max="7" width="8" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.6015625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="6" max="6" width="10.15625" customWidth="true"/>
+    <col min="7" max="7" width="7.37890625" customWidth="true"/>
+    <col min="8" max="8" width="9.26953125" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10.37890625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.26953125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10" customWidth="true"/>
-    <col min="18" max="18" width="8.7109375" customWidth="true"/>
+    <col min="17" max="17" width="9.15625" customWidth="true"/>
+    <col min="18" max="18" width="7.93359375" customWidth="true"/>
     <col min="19" max="19" width="7.7109375" customWidth="true"/>
-    <col min="20" max="20" width="4" customWidth="true"/>
-    <col min="21" max="21" width="8.42578125" customWidth="true"/>
-    <col min="22" max="22" width="10" customWidth="true"/>
+    <col min="20" max="20" width="3.7109375" customWidth="true"/>
+    <col min="21" max="21" width="8.37890625" customWidth="true"/>
+    <col min="22" max="22" width="9.37890625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.85546875" customWidth="true"/>
-    <col min="26" max="26" width="8.140625" customWidth="true"/>
+    <col min="24" max="24" width="7.37890625" customWidth="true"/>
+    <col min="25" max="25" width="8.046875" customWidth="true"/>
+    <col min="26" max="26" width="7.93359375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="13" customWidth="true"/>
-    <col min="32" max="32" width="9.42578125" customWidth="true"/>
+    <col min="31" max="31" width="11.48828125" customWidth="true"/>
+    <col min="32" max="32" width="8.7109375" customWidth="true"/>
     <col min="33" max="33" width="7.7109375" customWidth="true"/>
-    <col min="34" max="34" width="8.140625" customWidth="true"/>
+    <col min="34" max="34" width="7.82421875" customWidth="true"/>
     <col min="35" max="35" width="7.7109375" customWidth="true"/>
-    <col min="36" max="36" width="10.140625" customWidth="true"/>
-    <col min="37" max="37" width="4.7109375" customWidth="true"/>
-    <col min="38" max="38" width="14.5703125" customWidth="true"/>
+    <col min="36" max="36" width="9.15625" customWidth="true"/>
+    <col min="37" max="37" width="4.37890625" customWidth="true"/>
+    <col min="38" max="38" width="13.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5727</v>
+        <v>6253</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5743</v>
+        <v>6269</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5744</v>
+        <v>6270</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5746</v>
+        <v>6272</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5747</v>
+        <v>6273</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5771</v>
+        <v>6297</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5772</v>
+        <v>6298</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5773</v>
+        <v>6299</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5774</v>
+        <v>6300</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5775</v>
+        <v>6301</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5776</v>
+        <v>6302</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5777</v>
+        <v>6303</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5778</v>
+        <v>6304</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5779</v>
+        <v>6305</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5780</v>
+        <v>6306</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5781</v>
+        <v>6307</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5782</v>
+        <v>6308</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5783</v>
+        <v>6309</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5784</v>
+        <v>6310</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5785</v>
+        <v>6311</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5786</v>
+        <v>6312</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5787</v>
+        <v>6313</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5788</v>
+        <v>6314</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5789</v>
+        <v>6315</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5790</v>
+        <v>6316</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5791</v>
+        <v>6317</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5792</v>
+        <v>6318</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5793</v>
+        <v>6319</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5794</v>
+        <v>6320</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5795</v>
+        <v>6321</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5796</v>
+        <v>6322</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5797</v>
+        <v>6323</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5798</v>
+        <v>6324</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5799</v>
+        <v>6325</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5800</v>
+        <v>6326</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5801</v>
+        <v>6327</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5802</v>
+        <v>6328</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5803</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5728</v>
+        <v>6254</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5748</v>
+        <v>6274</v>
       </c>
       <c r="F2" s="0">
         <v>140.221</v>
@@ -40672,19 +42264,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5729</v>
+        <v>6255</v>
       </c>
       <c r="B3" s="0">
         <v>31218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5749</v>
+        <v>6275</v>
       </c>
       <c r="F3" s="0">
         <v>271.06599999999997</v>
@@ -40788,19 +42380,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5729</v>
+        <v>6255</v>
       </c>
       <c r="B4" s="0">
         <v>31218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5750</v>
+        <v>6276</v>
       </c>
       <c r="F4" s="0">
         <v>275.89999999999998</v>
@@ -40904,19 +42496,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5730</v>
+        <v>6256</v>
       </c>
       <c r="B5" s="0">
         <v>171218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5751</v>
+        <v>6277</v>
       </c>
       <c r="F5" s="0">
         <v>316.25900000000001</v>
@@ -41020,19 +42612,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5731</v>
+        <v>6257</v>
       </c>
       <c r="B6" s="0">
         <v>171218</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5752</v>
+        <v>6278</v>
       </c>
       <c r="F6" s="0">
         <v>330.71899999999999</v>
@@ -41136,19 +42728,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5731</v>
+        <v>6257</v>
       </c>
       <c r="B7" s="0">
         <v>171218</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5753</v>
+        <v>6279</v>
       </c>
       <c r="F7" s="0">
         <v>222.124</v>
@@ -41252,19 +42844,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5732</v>
+        <v>6258</v>
       </c>
       <c r="B8" s="0">
         <v>171218</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5754</v>
+        <v>6280</v>
       </c>
       <c r="F8" s="0">
         <v>286.29000000000002</v>
@@ -41368,19 +42960,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5732</v>
+        <v>6258</v>
       </c>
       <c r="B9" s="0">
         <v>171218</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5755</v>
+        <v>6281</v>
       </c>
       <c r="F9" s="0">
         <v>147.30500000000001</v>
@@ -41484,19 +43076,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5733</v>
+        <v>6259</v>
       </c>
       <c r="B10" s="0">
         <v>171218</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D10" s="0">
         <v>3</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5756</v>
+        <v>6282</v>
       </c>
       <c r="F10" s="0">
         <v>172.61199999999999</v>
@@ -41600,19 +43192,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5734</v>
+        <v>6260</v>
       </c>
       <c r="B11" s="0">
         <v>70219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D11" s="0">
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5757</v>
+        <v>6283</v>
       </c>
       <c r="F11" s="0">
         <v>462.14100000000002</v>
@@ -41716,19 +43308,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5735</v>
+        <v>6261</v>
       </c>
       <c r="B12" s="0">
         <v>70219</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D12" s="0">
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5758</v>
+        <v>6284</v>
       </c>
       <c r="F12" s="0">
         <v>199.196</v>
@@ -41832,19 +43424,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5735</v>
+        <v>6261</v>
       </c>
       <c r="B13" s="0">
         <v>80219</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5759</v>
+        <v>6285</v>
       </c>
       <c r="F13" s="0">
         <v>118.5</v>
@@ -41898,7 +43490,7 @@
         <v>4</v>
       </c>
       <c r="W13" s="0">
-        <v>1.141444342226311</v>
+        <v>1.2414443422263099</v>
       </c>
       <c r="X13" s="0">
         <v>3</v>
@@ -41948,19 +43540,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5735</v>
+        <v>6261</v>
       </c>
       <c r="B14" s="0">
         <v>80219</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5760</v>
+        <v>6286</v>
       </c>
       <c r="F14" s="0">
         <v>201.71199999999999</v>
@@ -42064,19 +43656,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5736</v>
+        <v>6262</v>
       </c>
       <c r="B15" s="0">
         <v>80219</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5761</v>
+        <v>6287</v>
       </c>
       <c r="F15" s="0">
         <v>384.01299999999998</v>
@@ -42180,19 +43772,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5736</v>
+        <v>6262</v>
       </c>
       <c r="B16" s="0">
         <v>80219</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5762</v>
+        <v>6288</v>
       </c>
       <c r="F16" s="0">
         <v>319.01100000000002</v>
@@ -42296,19 +43888,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5737</v>
+        <v>6263</v>
       </c>
       <c r="B17" s="0">
         <v>80219</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5763</v>
+        <v>6289</v>
       </c>
       <c r="F17" s="0">
         <v>259.53100000000001</v>
@@ -42412,19 +44004,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5738</v>
+        <v>6264</v>
       </c>
       <c r="B18" s="0">
         <v>80219</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5764</v>
+        <v>6290</v>
       </c>
       <c r="F18" s="0">
         <v>307.721</v>
@@ -42528,19 +44120,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5739</v>
+        <v>6265</v>
       </c>
       <c r="B19" s="0">
         <v>120219</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5765</v>
+        <v>6291</v>
       </c>
       <c r="F19" s="0">
         <v>188.19800000000001</v>
@@ -42644,19 +44236,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5739</v>
+        <v>6265</v>
       </c>
       <c r="B20" s="0">
         <v>120219</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5766</v>
+        <v>6292</v>
       </c>
       <c r="F20" s="0">
         <v>118.57599999999999</v>
@@ -42760,19 +44352,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5739</v>
+        <v>6265</v>
       </c>
       <c r="B21" s="0">
         <v>120219</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5767</v>
+        <v>6293</v>
       </c>
       <c r="F21" s="0">
         <v>320.55099999999999</v>
@@ -42876,19 +44468,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5740</v>
+        <v>6266</v>
       </c>
       <c r="B22" s="0">
         <v>150519</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5768</v>
+        <v>6294</v>
       </c>
       <c r="F22" s="0">
         <v>306.83999999999997</v>
@@ -42992,19 +44584,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5741</v>
+        <v>6267</v>
       </c>
       <c r="B23" s="0">
         <v>150519</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5769</v>
+        <v>6295</v>
       </c>
       <c r="F23" s="0">
         <v>187.68700000000001</v>
@@ -43056,7 +44648,7 @@
         <v>2.7069999999999999</v>
       </c>
       <c r="W23" s="0">
-        <v>1.144708423326134</v>
+        <v>1.15470842332613</v>
       </c>
       <c r="X23" s="0">
         <v>4</v>
@@ -43106,19 +44698,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5742</v>
+        <v>6268</v>
       </c>
       <c r="B24" s="0">
         <v>150519</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5745</v>
+        <v>6271</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5770</v>
+        <v>6296</v>
       </c>
       <c r="F24" s="0">
         <v>336.72300000000001</v>
